--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -26,14 +26,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="4zSd8kQctQQuiEYnaMHXa/5gUkcGsf7JSulF0Tn7LFg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="ONEBSIIj0jR4M+mbdZQ1tcTlHjxNuFh46mGjjlhrlew="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="660">
   <si>
     <t>Yes</t>
   </si>
@@ -384,9 +384,6 @@
 }</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>one bug you are proud of</t>
   </si>
   <si>
@@ -706,7 +703,10 @@
     <t>Thread parallesim</t>
   </si>
   <si>
-    <t>string builder, buffer, string : String builder is quickest and non-synchronized then buffer ( synchronized) then string.</t>
+    <t xml:space="preserve">string builder, buffer, string </t>
+  </si>
+  <si>
+    <t>String builder is quickest and non-synchronized then buffer ( synchronized) then string</t>
   </si>
   <si>
     <t>Disadvantages of threads</t>
@@ -4180,7 +4180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -4205,6 +4205,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -4270,7 +4275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4291,16 +4296,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -4308,10 +4313,13 @@
     <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4977,13 +4985,13 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -4991,13 +4999,13 @@
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -6019,10 +6027,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>578</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6033,10 +6041,10 @@
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>580</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6047,10 +6055,10 @@
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>582</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6061,10 +6069,10 @@
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>584</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -6075,10 +6083,10 @@
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>586</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6089,10 +6097,10 @@
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>588</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -6103,10 +6111,10 @@
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>590</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -6117,62 +6125,62 @@
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
@@ -6200,7 +6208,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>592</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6214,7 +6222,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>594</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -6228,7 +6236,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>596</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6242,7 +6250,7 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>598</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6256,7 +6264,7 @@
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>600</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6267,7 +6275,7 @@
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6305,7 +6313,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>604</v>
@@ -6319,7 +6327,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>606</v>
@@ -6424,7 +6432,7 @@
       <c r="B6" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6446,7 +6454,7 @@
       <c r="B8" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>623</v>
       </c>
     </row>
@@ -6457,7 +6465,7 @@
       <c r="B9" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>625</v>
       </c>
     </row>
@@ -6468,7 +6476,7 @@
       <c r="B10" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6479,7 +6487,7 @@
       <c r="B11" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>629</v>
       </c>
     </row>
@@ -6490,7 +6498,7 @@
       <c r="B12" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6523,7 +6531,7 @@
       <c r="B15" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>637</v>
       </c>
     </row>
@@ -6556,7 +6564,7 @@
       <c r="B18" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>643</v>
       </c>
     </row>
@@ -6578,7 +6586,7 @@
       <c r="B20" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6589,7 +6597,7 @@
       <c r="B21" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>649</v>
       </c>
     </row>
@@ -6653,7 +6661,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>654</v>
@@ -6687,12 +6695,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6720,7 +6728,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>657</v>
@@ -6728,31 +6736,9 @@
       <c r="C1" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6771,7 +6757,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>659</v>
@@ -6809,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6823,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -6837,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6851,10 +6837,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -6865,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -6879,10 +6865,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -6893,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -6905,10 +6891,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -6919,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -6933,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -6945,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -6959,10 +6945,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -6973,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -6987,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -7001,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -7015,10 +7001,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -7029,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -7043,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -7057,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -7071,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -7085,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -7099,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -7113,10 +7099,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -7127,10 +7113,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -7141,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -7155,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -7169,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -7183,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -7197,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -7211,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -7225,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -7239,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -7253,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -7267,10 +7253,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -7281,9 +7267,11 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
@@ -7296,7 +7284,7 @@
         <v>118</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -7310,7 +7298,7 @@
         <v>119</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -7318,7 +7306,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>120</v>
@@ -7332,7 +7320,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>122</v>
@@ -7346,7 +7334,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>124</v>
@@ -7360,7 +7348,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>126</v>
@@ -7374,7 +7362,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>128</v>
@@ -7388,7 +7376,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
@@ -7402,13 +7390,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -7416,7 +7404,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
@@ -7430,7 +7418,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>135</v>
@@ -13041,15 +13029,15 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -13058,10 +13046,10 @@
       <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13072,10 +13060,10 @@
       <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13086,10 +13074,10 @@
       <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13100,10 +13088,10 @@
       <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -13114,10 +13102,10 @@
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -13128,10 +13116,10 @@
       <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13142,66 +13130,66 @@
       <c r="B8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13212,10 +13200,10 @@
       <c r="B13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13226,10 +13214,10 @@
       <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -13240,10 +13228,10 @@
       <c r="B15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13254,10 +13242,10 @@
       <c r="B16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13268,10 +13256,10 @@
       <c r="B17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13282,10 +13270,10 @@
       <c r="B18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13296,10 +13284,10 @@
       <c r="B19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13310,10 +13298,10 @@
       <c r="B20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13324,10 +13312,10 @@
       <c r="B21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13338,10 +13326,10 @@
       <c r="B22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13352,10 +13340,10 @@
       <c r="B23" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13366,24 +13354,24 @@
       <c r="B24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13394,10 +13382,10 @@
       <c r="B26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13408,10 +13396,10 @@
       <c r="B27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13422,10 +13410,10 @@
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13436,10 +13424,10 @@
       <c r="B29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13450,10 +13438,10 @@
       <c r="B30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13464,10 +13452,10 @@
       <c r="B31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13478,10 +13466,10 @@
       <c r="B32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13492,10 +13480,10 @@
       <c r="B33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13506,10 +13494,10 @@
       <c r="B34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13520,10 +13508,10 @@
       <c r="B35" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13534,10 +13522,10 @@
       <c r="B36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13548,10 +13536,10 @@
       <c r="B37" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13562,10 +13550,10 @@
       <c r="B38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13576,10 +13564,10 @@
       <c r="B39" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13590,10 +13578,10 @@
       <c r="B40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13604,10 +13592,10 @@
       <c r="B41" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13618,10 +13606,10 @@
       <c r="B42" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13632,10 +13620,10 @@
       <c r="B43" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13646,10 +13634,10 @@
       <c r="B44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13660,10 +13648,10 @@
       <c r="B45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13674,10 +13662,10 @@
       <c r="B46" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13688,10 +13676,10 @@
       <c r="B47" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13700,12 +13688,12 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13716,10 +13704,10 @@
       <c r="B49" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13730,10 +13718,10 @@
       <c r="B50" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13744,10 +13732,10 @@
       <c r="B51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13758,10 +13746,10 @@
       <c r="B52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13772,10 +13760,10 @@
       <c r="B53" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13786,10 +13774,10 @@
       <c r="B54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13800,10 +13788,10 @@
       <c r="B55" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13814,10 +13802,10 @@
       <c r="B56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13828,94 +13816,94 @@
       <c r="B57" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" ht="15.0" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" ht="15.0" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" ht="15.0" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" ht="15.0" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" ht="15.0" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13926,94 +13914,94 @@
       <c r="B64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" ht="15.0" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" ht="15.0" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" ht="15.0" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" ht="15.0" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" ht="15.0" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" ht="15.0" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14024,242 +14012,242 @@
       <c r="B71" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" ht="15.0" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" ht="15.0" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" ht="15.0" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
     </row>
     <row r="77" ht="15.0" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" ht="15.0" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" ht="15.0" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" ht="15.0" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" ht="15.0" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" ht="15.0" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" ht="15.0" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" ht="15.0" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85" ht="15.0" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" ht="15.0" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" ht="15.0" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" ht="15.0" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" ht="15.0" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" ht="15.0" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" ht="15.0" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" ht="15.0" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93" ht="15.0" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94" ht="15.0" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95" ht="15.0" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96" ht="15.0" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" ht="15.0" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98" ht="15.0" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99" ht="15.0" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" ht="15.0" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" ht="15.0" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" ht="15.0" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="9"/>
     </row>
     <row r="103" ht="15.0" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104" ht="15.0" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" ht="15.0" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9"/>
     </row>
     <row r="106" ht="15.0" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="9"/>
     </row>
     <row r="107" ht="15.0" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108" ht="15.0" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14374,7 +14362,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>279</v>
@@ -14388,7 +14376,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>281</v>
@@ -14402,7 +14390,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>283</v>
@@ -14416,13 +14404,13 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -14430,13 +14418,13 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -14444,13 +14432,13 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -14458,13 +14446,13 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -14472,13 +14460,13 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -14486,13 +14474,13 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -14563,96 +14551,6 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -14973,7 +14871,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>311</v>
@@ -14987,7 +14885,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>313</v>
@@ -15001,7 +14899,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>315</v>
@@ -15015,7 +14913,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>317</v>
@@ -15029,7 +14927,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>319</v>
@@ -15043,7 +14941,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>321</v>
@@ -15057,7 +14955,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>323</v>
@@ -15071,10 +14969,10 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>325</v>
@@ -15085,7 +14983,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>326</v>
@@ -15099,7 +14997,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>328</v>
@@ -15113,7 +15011,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>330</v>
@@ -15127,7 +15025,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>332</v>
@@ -15141,7 +15039,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>334</v>
@@ -15155,7 +15053,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>336</v>
@@ -15169,7 +15067,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>338</v>
@@ -15183,7 +15081,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>340</v>
@@ -15197,7 +15095,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>342</v>
@@ -15211,7 +15109,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>344</v>
@@ -15225,7 +15123,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>346</v>
@@ -15239,7 +15137,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>348</v>
@@ -15253,7 +15151,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>350</v>
@@ -15267,7 +15165,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>352</v>
@@ -15281,7 +15179,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>354</v>
@@ -15295,7 +15193,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>356</v>
@@ -15309,7 +15207,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>358</v>
@@ -15323,7 +15221,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>360</v>
@@ -15337,7 +15235,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>362</v>
@@ -15351,7 +15249,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>364</v>
@@ -15365,7 +15263,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>366</v>
@@ -15379,7 +15277,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>368</v>
@@ -15393,7 +15291,7 @@
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>370</v>
@@ -15407,7 +15305,7 @@
     </row>
     <row r="32" ht="15.0" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>372</v>
@@ -15421,7 +15319,7 @@
     </row>
     <row r="33" ht="15.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>374</v>
@@ -15435,7 +15333,7 @@
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>376</v>
@@ -15449,7 +15347,7 @@
     </row>
     <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>378</v>
@@ -15463,7 +15361,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>380</v>
@@ -15477,7 +15375,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>382</v>
@@ -15491,7 +15389,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>384</v>
@@ -15505,7 +15403,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>386</v>
@@ -15519,7 +15417,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>388</v>
@@ -15533,7 +15431,7 @@
     </row>
     <row r="41" ht="15.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>390</v>
@@ -15547,7 +15445,7 @@
     </row>
     <row r="42" ht="15.0" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>392</v>
@@ -15561,7 +15459,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>394</v>
@@ -15575,7 +15473,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>396</v>
@@ -15589,7 +15487,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>398</v>
@@ -15603,7 +15501,7 @@
     </row>
     <row r="46" ht="15.0" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>400</v>
@@ -15617,7 +15515,7 @@
     </row>
     <row r="47" ht="15.0" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>402</v>
@@ -15631,7 +15529,7 @@
     </row>
     <row r="48" ht="15.0" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>404</v>
@@ -15645,7 +15543,7 @@
     </row>
     <row r="49" ht="15.0" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>406</v>
@@ -15659,7 +15557,7 @@
     </row>
     <row r="50" ht="15.0" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>408</v>
@@ -15673,7 +15571,7 @@
     </row>
     <row r="51" ht="15.0" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>410</v>
@@ -15687,7 +15585,7 @@
     </row>
     <row r="52" ht="15.0" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>412</v>
@@ -15701,7 +15599,7 @@
     </row>
     <row r="53" ht="15.0" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>414</v>
@@ -15817,7 +15715,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>416</v>
@@ -15831,7 +15729,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>418</v>
@@ -15845,7 +15743,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>420</v>
@@ -15859,7 +15757,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>422</v>
@@ -15873,7 +15771,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>424</v>
@@ -15887,7 +15785,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>426</v>
@@ -15901,7 +15799,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>428</v>
@@ -15915,7 +15813,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>430</v>
@@ -15929,7 +15827,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>432</v>
@@ -15943,7 +15841,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>434</v>
@@ -15957,7 +15855,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>436</v>
@@ -15971,7 +15869,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>438</v>
@@ -15985,7 +15883,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>438</v>
@@ -15999,7 +15897,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>441</v>
@@ -16013,7 +15911,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>443</v>
@@ -16027,7 +15925,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>445</v>
@@ -16041,7 +15939,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>447</v>
@@ -16055,7 +15953,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>449</v>
@@ -16069,7 +15967,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>451</v>
@@ -16083,7 +15981,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>453</v>
@@ -16097,7 +15995,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>455</v>
@@ -16111,7 +16009,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>457</v>
@@ -16125,7 +16023,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>459</v>
@@ -16139,7 +16037,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>461</v>
@@ -16153,7 +16051,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>463</v>
@@ -16167,7 +16065,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>465</v>
@@ -16181,7 +16079,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>467</v>
@@ -16195,7 +16093,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>469</v>
@@ -16209,7 +16107,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>471</v>
@@ -16223,7 +16121,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>473</v>
@@ -16237,7 +16135,7 @@
     </row>
     <row r="31" ht="15.0" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>475</v>
@@ -16251,7 +16149,7 @@
     </row>
     <row r="32" ht="15.0" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>477</v>
@@ -16265,7 +16163,7 @@
     </row>
     <row r="33" ht="15.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>479</v>
@@ -16279,7 +16177,7 @@
     </row>
     <row r="34" ht="15.0" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>481</v>
@@ -16293,7 +16191,7 @@
     </row>
     <row r="35" ht="15.0" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>483</v>
@@ -16307,7 +16205,7 @@
     </row>
     <row r="36" ht="15.0" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>485</v>
@@ -16321,7 +16219,7 @@
     </row>
     <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>487</v>
@@ -16335,7 +16233,7 @@
     </row>
     <row r="38" ht="15.0" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>489</v>
@@ -16349,7 +16247,7 @@
     </row>
     <row r="39" ht="15.0" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>491</v>
@@ -16363,7 +16261,7 @@
     </row>
     <row r="40" ht="15.0" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>493</v>
@@ -16377,7 +16275,7 @@
     </row>
     <row r="41" ht="15.0" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>495</v>
@@ -16391,7 +16289,7 @@
     </row>
     <row r="42" ht="15.0" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>497</v>
@@ -16405,7 +16303,7 @@
     </row>
     <row r="43" ht="15.0" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>499</v>
@@ -16419,7 +16317,7 @@
     </row>
     <row r="44" ht="15.0" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>501</v>
@@ -16433,7 +16331,7 @@
     </row>
     <row r="45" ht="15.0" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>503</v>
@@ -16665,7 +16563,7 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>505</v>
@@ -16679,7 +16577,7 @@
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>507</v>
@@ -16693,7 +16591,7 @@
     </row>
     <row r="3" ht="15.0" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>509</v>
@@ -16707,7 +16605,7 @@
     </row>
     <row r="4" ht="15.0" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>511</v>
@@ -16721,7 +16619,7 @@
     </row>
     <row r="5" ht="15.0" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>513</v>
@@ -16735,7 +16633,7 @@
     </row>
     <row r="6" ht="15.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>514</v>
@@ -16749,7 +16647,7 @@
     </row>
     <row r="7" ht="15.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>516</v>
@@ -16763,7 +16661,7 @@
     </row>
     <row r="8" ht="15.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>518</v>
@@ -16777,7 +16675,7 @@
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>520</v>
@@ -16791,7 +16689,7 @@
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>522</v>
@@ -16805,7 +16703,7 @@
     </row>
     <row r="11" ht="15.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>524</v>
@@ -16819,7 +16717,7 @@
     </row>
     <row r="12" ht="15.0" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>526</v>
@@ -16833,7 +16731,7 @@
     </row>
     <row r="13" ht="15.0" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>528</v>
@@ -16847,7 +16745,7 @@
     </row>
     <row r="14" ht="15.0" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>530</v>
@@ -16861,7 +16759,7 @@
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>532</v>
@@ -16875,7 +16773,7 @@
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>534</v>
@@ -16889,7 +16787,7 @@
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>536</v>
@@ -16903,7 +16801,7 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>538</v>
@@ -16917,7 +16815,7 @@
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>540</v>
@@ -16931,7 +16829,7 @@
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>542</v>
@@ -16945,7 +16843,7 @@
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>544</v>
@@ -16959,7 +16857,7 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>546</v>
@@ -16973,7 +16871,7 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>548</v>
@@ -16987,7 +16885,7 @@
     </row>
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>550</v>
@@ -17001,7 +16899,7 @@
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>552</v>
@@ -17015,7 +16913,7 @@
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>554</v>
@@ -17029,7 +16927,7 @@
     </row>
     <row r="27" ht="15.0" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>556</v>
@@ -17043,7 +16941,7 @@
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>558</v>
@@ -17057,7 +16955,7 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>560</v>
@@ -17071,7 +16969,7 @@
     </row>
     <row r="30" ht="15.0" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>562</v>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -26,14 +26,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="2DyrPKQHZ35a5PKorwDjYAqrlmyKaujygL7dSFEggI0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="0rpaBIhqBp2v8slEKK4BR6EFEV4pmazcHxsFC8C/Ppo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1196">
   <si>
     <t>Yes</t>
   </si>
@@ -2461,6 +2461,9 @@
   </si>
   <si>
     <t>explain modularity ( pom )</t>
+  </si>
+  <si>
+    <t>tettt</t>
   </si>
   <si>
     <t>ReportNG</t>
@@ -7052,7 +7055,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7063,9 +7066,6 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -7419,7 +7419,6 @@
     <col customWidth="1" min="2" max="2" width="23.22"/>
     <col customWidth="1" min="3" max="3" width="89.0"/>
     <col customWidth="1" min="4" max="4" width="28.78"/>
-    <col customWidth="1" min="5" max="24" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -8205,26 +8204,6 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
@@ -8239,26 +8218,6 @@
       <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
@@ -8273,26 +8232,6 @@
       <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
@@ -8307,26 +8246,6 @@
       <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -8341,26 +8260,6 @@
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
@@ -8375,26 +8274,6 @@
       <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -8409,26 +8288,6 @@
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
       <c r="A63" s="1" t="s">
@@ -8443,26 +8302,6 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
@@ -8477,26 +8316,6 @@
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
     </row>
     <row r="65" ht="18.0" customHeight="1">
       <c r="A65" s="1" t="s">
@@ -8511,26 +8330,6 @@
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
     </row>
     <row r="66" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
@@ -8545,131 +8344,11 @@
       <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
+    </row>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>
@@ -9459,124 +9138,6 @@
     <row r="857" ht="15.75" customHeight="1"/>
     <row r="858" ht="15.75" customHeight="1"/>
     <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -9604,10 +9165,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9618,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9632,10 +9193,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9646,10 +9207,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9660,10 +9221,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9674,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9688,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9702,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9792,170 +9353,116 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>852</v>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>853</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>854</v>
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>855</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>856</v>
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>857</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>858</v>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>859</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>860</v>
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>861</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>862</v>
+      <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>863</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>864</v>
+      <c r="A7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>865</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>866</v>
+      <c r="A8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>867</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9983,10 +9490,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9997,10 +9504,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10011,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10025,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10039,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C5" s="21" t="s">
         <v>877</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>878</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10053,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10067,10 +9574,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10081,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10095,10 +9602,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10109,10 +9616,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10123,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10136,11 +9643,11 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>890</v>
+      <c r="B12" s="21" t="s">
+        <v>891</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10151,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10165,10 +9672,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10179,10 +9686,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10193,10 +9700,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10207,10 +9714,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10221,10 +9728,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10235,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10249,10 +9756,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10263,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10277,10 +9784,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10291,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10305,10 +9812,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10319,10 +9826,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -10332,11 +9839,11 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>918</v>
+      <c r="B26" s="21" t="s">
+        <v>919</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -10347,10 +9854,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -10360,11 +9867,11 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>922</v>
+      <c r="B28" s="21" t="s">
+        <v>923</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -10374,11 +9881,11 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>924</v>
+      <c r="B29" s="21" t="s">
+        <v>925</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -10388,11 +9895,11 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>926</v>
+      <c r="B30" s="21" t="s">
+        <v>927</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -10402,11 +9909,11 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>928</v>
+      <c r="B31" s="21" t="s">
+        <v>929</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -10416,27 +9923,15 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>930</v>
+      <c r="B32" s="21" t="s">
+        <v>931</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10465,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10479,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10493,10 +9988,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10507,10 +10002,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10521,10 +10016,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10535,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C6" s="23" t="s">
         <v>943</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>944</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10549,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10563,10 +10058,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C8" s="23" t="s">
         <v>947</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>948</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10577,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C9" s="23" t="s">
         <v>949</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>950</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10591,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C10" s="23" t="s">
         <v>951</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>952</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10605,10 +10100,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C11" s="23" t="s">
         <v>953</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>954</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10619,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C12" s="23" t="s">
         <v>955</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>956</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10633,10 +10128,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10647,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10661,10 +10156,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="C15" s="23" t="s">
         <v>961</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>962</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10675,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10689,10 +10184,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10703,10 +10198,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C18" s="23" t="s">
         <v>967</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>968</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10717,10 +10212,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10731,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="C20" s="23" t="s">
         <v>971</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>972</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10745,10 +10240,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C21" s="23" t="s">
         <v>973</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>974</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10759,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="C22" s="23" t="s">
         <v>975</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>976</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10773,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="C23" s="23" t="s">
         <v>977</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>978</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10787,17 +10282,15 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C24" s="23" t="s">
         <v>979</v>
       </c>
+      <c r="C24" s="22" t="s">
+        <v>980</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1"/>
-    <row r="26" ht="16.5" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10822,10 +10315,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10836,10 +10329,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10870,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C1" s="20" t="s">
         <v>985</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>986</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10884,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="C2" s="20" t="s">
         <v>987</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>988</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10898,10 +10391,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C3" s="20" t="s">
         <v>989</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>990</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10912,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="C4" s="20" t="s">
         <v>991</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>992</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10926,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C5" s="20" t="s">
         <v>993</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>994</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10940,10 +10433,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="C6" s="20" t="s">
         <v>995</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>996</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10954,10 +10447,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C7" s="20" t="s">
         <v>997</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>998</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10968,10 +10461,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>999</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10984,8 +10477,8 @@
       <c r="B9" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>1000</v>
+      <c r="C9" s="19" t="s">
+        <v>1001</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10996,10 +10489,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C10" s="20" t="s">
         <v>1002</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1003</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -11010,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C11" s="20" t="s">
         <v>1004</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1005</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -11024,10 +10517,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C12" s="20" t="s">
         <v>1006</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1007</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -11038,10 +10531,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C13" s="20" t="s">
         <v>1008</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1009</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -11052,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C14" s="20" t="s">
         <v>1010</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1011</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -11066,10 +10559,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C15" s="20" t="s">
         <v>1012</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1013</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -11080,10 +10573,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="20" t="s">
         <v>1014</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1015</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -11094,10 +10587,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C17" s="20" t="s">
         <v>1016</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1017</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -11108,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C18" s="20" t="s">
         <v>1018</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1019</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -11122,10 +10615,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>1019</v>
+        <v>837</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>1020</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -11136,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C20" s="20" t="s">
         <v>1021</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1022</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -11150,10 +10643,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C21" s="20" t="s">
         <v>1023</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>1024</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -11164,10 +10657,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="20" t="s">
         <v>1025</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>1026</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -11178,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C23" s="20" t="s">
         <v>1027</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>1028</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -11192,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C24" s="20" t="s">
         <v>1029</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>1030</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -11206,10 +10699,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C25" s="20" t="s">
         <v>1031</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>1032</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -11220,10 +10713,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C26" s="20" t="s">
         <v>1033</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>1034</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -11234,10 +10727,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C27" s="20" t="s">
         <v>1035</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>1036</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -11248,10 +10741,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C28" s="20" t="s">
         <v>1037</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>1038</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -11262,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>1039</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>1040</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -11276,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C30" s="20" t="s">
         <v>1041</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1042</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -11292,8 +10785,8 @@
       <c r="B31" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>1042</v>
+      <c r="C31" s="19" t="s">
+        <v>1043</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -11304,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C32" s="20" t="s">
         <v>1044</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>1045</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -11318,10 +10811,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C33" s="20" t="s">
         <v>1046</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>1047</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -11332,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C34" s="20" t="s">
         <v>1048</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1049</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -11346,10 +10839,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C35" s="20" t="s">
         <v>1050</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>1051</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -11360,10 +10853,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C36" s="20" t="s">
         <v>1052</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>1053</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -11374,10 +10867,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C37" s="20" t="s">
         <v>1054</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1055</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -11388,10 +10881,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C38" s="20" t="s">
         <v>1056</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>1057</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -11402,10 +10895,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C39" s="20" t="s">
         <v>1058</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>1059</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -11416,10 +10909,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C40" s="20" t="s">
         <v>1060</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1061</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -11430,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C41" s="20" t="s">
         <v>1062</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>1063</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -11444,10 +10937,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C42" s="20" t="s">
         <v>1064</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1065</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -11458,10 +10951,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C43" s="20" t="s">
         <v>1066</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1067</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -11472,10 +10965,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C44" s="20" t="s">
         <v>1068</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1069</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -11485,11 +10978,11 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>1070</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1071</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -11500,10 +10993,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C46" s="20" t="s">
         <v>1072</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>1073</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -11514,10 +11007,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C47" s="20" t="s">
         <v>1074</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>1075</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -11528,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C48" s="20" t="s">
         <v>1076</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1077</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -11542,10 +11035,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C49" s="20" t="s">
         <v>1078</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>1079</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -11556,10 +11049,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C50" s="20" t="s">
         <v>1080</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>1081</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -11570,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C51" s="20" t="s">
         <v>1082</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1083</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -11584,10 +11077,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C52" s="20" t="s">
         <v>1084</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>1085</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -11598,10 +11091,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C53" s="20" t="s">
         <v>1086</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>1087</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -11612,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C54" s="24" t="s">
         <v>1088</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>1089</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -11626,10 +11119,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C55" s="20" t="s">
         <v>1090</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>1091</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -11640,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -11654,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C57" s="20" t="s">
         <v>1094</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>1095</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -11668,10 +11161,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C58" s="20" t="s">
         <v>1096</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>1097</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -11682,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C59" s="20" t="s">
         <v>1098</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>1099</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -11696,10 +11189,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -11710,10 +11203,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C61" s="20" t="s">
         <v>1102</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>1103</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -11724,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -11738,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C63" s="20" t="s">
         <v>1106</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>1107</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -11752,10 +11245,10 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C64" s="20" t="s">
         <v>1108</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>1109</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -11766,10 +11259,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C65" s="20" t="s">
         <v>1110</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>1111</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
@@ -11780,10 +11273,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C66" s="20" t="s">
         <v>1112</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>1113</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -11794,10 +11287,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C67" s="20" t="s">
         <v>1114</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>1115</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -11808,10 +11301,10 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
@@ -11822,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -11836,10 +11329,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -11850,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
@@ -11864,10 +11357,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C72" s="20" t="s">
         <v>1124</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>1125</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -11878,10 +11371,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C73" s="20" t="s">
         <v>1126</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>1127</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -11892,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C74" s="20" t="s">
         <v>1128</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>1129</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
@@ -11906,10 +11399,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C75" s="20" t="s">
         <v>1130</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>1131</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -11920,10 +11413,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C76" s="20" t="s">
         <v>1132</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>1133</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -11934,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C77" s="20" t="s">
         <v>1134</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>1135</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
@@ -11948,34 +11441,14 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C78" s="20" t="s">
         <v>1136</v>
       </c>
+      <c r="C78" s="19" t="s">
+        <v>1137</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" ht="23.25" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" ht="23.25" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12005,10 +11478,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C1" s="20" t="s">
         <v>1138</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12019,10 +11492,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C2" s="20" t="s">
         <v>1140</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1141</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12033,10 +11506,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C3" s="20" t="s">
         <v>1142</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1143</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -12047,10 +11520,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C4" s="20" t="s">
         <v>1144</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1145</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -12061,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C5" s="20" t="s">
         <v>1146</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -12075,10 +11548,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C6" s="20" t="s">
         <v>1148</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1149</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -12089,10 +11562,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C7" s="20" t="s">
         <v>1150</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1151</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -12103,10 +11576,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>1152</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1153</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -12117,10 +11590,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C9" s="20" t="s">
         <v>1154</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1155</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -12131,10 +11604,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>570</v>
+        <v>1156</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -12145,10 +11618,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -12159,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>572</v>
+        <v>1158</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>573</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -12173,10 +11646,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>574</v>
+        <v>1159</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>575</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -12187,10 +11660,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>576</v>
+        <v>1160</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>577</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -12201,9 +11674,9 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>1161</v>
+      </c>
+      <c r="C15" s="19"/>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
@@ -12213,10 +11686,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C16" s="20" t="s">
         <v>1162</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -12227,10 +11700,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C17" s="20" t="s">
         <v>1164</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1165</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -12241,10 +11714,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C18" s="20" t="s">
         <v>1166</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1167</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -12255,10 +11728,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C19" s="20" t="s">
         <v>1168</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>1169</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -12269,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C20" s="20" t="s">
         <v>1170</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1171</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -12283,10 +11756,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C21" s="20" t="s">
         <v>979</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>980</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -12297,10 +11770,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>1054</v>
+        <v>1172</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>1055</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -12311,10 +11784,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>1056</v>
+        <v>1173</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>1057</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -12325,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>1058</v>
+        <v>1174</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>1059</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -12339,10 +11812,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>1060</v>
+        <v>1175</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>1061</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -12353,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C26" s="20" t="s">
         <v>1176</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>1177</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -12364,13 +11837,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C27" s="20" t="s">
         <v>1179</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>1180</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -12381,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C28" s="20" t="s">
         <v>1181</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>1182</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -12395,10 +11868,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -12409,10 +11882,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C30" s="20" t="s">
         <v>1184</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1185</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -12423,10 +11896,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -12437,10 +11910,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -12471,12 +11944,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12502,11 +11975,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1190</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12517,10 +11990,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C2" s="26" t="s">
         <v>1192</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12531,10 +12004,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -12565,7 +12038,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -12579,7 +12052,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -12593,7 +12066,7 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -12607,10 +12080,10 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -12621,10 +12094,10 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -12638,7 +12111,7 @@
       <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -12649,10 +12122,10 @@
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -12663,10 +12136,10 @@
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -12677,10 +12150,10 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -12691,10 +12164,10 @@
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -12705,10 +12178,10 @@
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -12719,10 +12192,10 @@
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -12733,10 +12206,10 @@
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -12747,10 +12220,10 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -12761,10 +12234,10 @@
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>163</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -12775,10 +12248,10 @@
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -12789,10 +12262,10 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -12803,10 +12276,10 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -12817,10 +12290,10 @@
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -12831,10 +12304,10 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -12845,10 +12318,10 @@
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -12859,163 +12332,15 @@
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" ht="15.0" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="1">
-      <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" ht="15.0" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" ht="15.0" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
-    </row>
-    <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="5"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="1">
-      <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="1">
-      <c r="B42" s="5"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" ht="15.0" customHeight="1">
-      <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" ht="15.0" customHeight="1">
-      <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" ht="15.0" customHeight="1">
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" ht="15.0" customHeight="1">
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" ht="15.0" customHeight="1">
-      <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" ht="15.0" customHeight="1">
-      <c r="B49" s="5"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" ht="15.0" customHeight="1">
-      <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" ht="15.0" customHeight="1">
-      <c r="B51" s="5"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" ht="15.0" customHeight="1">
-      <c r="B52" s="5"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" ht="15.0" customHeight="1">
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" ht="15.0" customHeight="1">
-      <c r="B54" s="5"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" ht="15.0" customHeight="1">
-      <c r="B55" s="5"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" ht="15.0" customHeight="1">
-      <c r="B56" s="5"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" ht="15.0" customHeight="1">
-      <c r="B57" s="5"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" ht="15.0" customHeight="1">
-      <c r="B58" s="5"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" ht="15.0" customHeight="1">
-      <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13144,7 +12469,7 @@
       <c r="B8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -13340,7 +12665,7 @@
       <c r="B22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -13368,7 +12693,7 @@
       <c r="B24" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -13438,7 +12763,7 @@
       <c r="B29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -13452,7 +12777,7 @@
       <c r="B30" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>234</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -13466,7 +12791,7 @@
       <c r="B31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -13480,7 +12805,7 @@
       <c r="B32" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -13494,7 +12819,7 @@
       <c r="B33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -13508,7 +12833,7 @@
       <c r="B34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -13522,7 +12847,7 @@
       <c r="B35" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -13536,7 +12861,7 @@
       <c r="B36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -13564,7 +12889,7 @@
       <c r="B38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -13578,7 +12903,7 @@
       <c r="B39" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -13676,7 +13001,7 @@
       <c r="B46" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -13802,7 +13127,7 @@
       <c r="B55" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>276</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -13816,7 +13141,7 @@
       <c r="B56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -13830,7 +13155,7 @@
       <c r="B57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -13844,7 +13169,7 @@
       <c r="B58" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -13858,7 +13183,7 @@
       <c r="B59" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -19090,282 +18415,6 @@
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="1"/>
-      <c r="B931" s="1"/>
-      <c r="C931" s="1"/>
-      <c r="D931" s="1"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="1"/>
-      <c r="B932" s="1"/>
-      <c r="C932" s="1"/>
-      <c r="D932" s="1"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="1"/>
-      <c r="B933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="1"/>
-      <c r="B934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="1"/>
-      <c r="B935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="1"/>
-      <c r="B936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="1"/>
-      <c r="B937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="1"/>
-      <c r="B938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="1"/>
-      <c r="B939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="1"/>
-      <c r="B940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="1"/>
-      <c r="B941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="1"/>
-      <c r="B942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -19402,10 +18451,10 @@
       <c r="B1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -19414,10 +18463,10 @@
       <c r="B2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>284</v>
       </c>
     </row>
@@ -19428,10 +18477,10 @@
       <c r="B3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>287</v>
       </c>
     </row>
@@ -19442,10 +18491,10 @@
       <c r="B4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>290</v>
       </c>
     </row>
@@ -19456,10 +18505,10 @@
       <c r="B5" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>293</v>
       </c>
     </row>
@@ -19470,10 +18519,10 @@
       <c r="B6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>296</v>
       </c>
     </row>
@@ -19484,10 +18533,10 @@
       <c r="B7" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19498,10 +18547,10 @@
       <c r="B8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19512,10 +18561,10 @@
       <c r="B9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19526,10 +18575,10 @@
       <c r="B10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19540,10 +18589,10 @@
       <c r="B11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19554,10 +18603,10 @@
       <c r="B12" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19568,10 +18617,10 @@
       <c r="B13" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19582,10 +18631,10 @@
       <c r="B14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>313</v>
       </c>
     </row>
@@ -19596,10 +18645,10 @@
       <c r="B15" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19610,10 +18659,10 @@
       <c r="B16" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19624,10 +18673,10 @@
       <c r="B17" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19638,10 +18687,10 @@
       <c r="B18" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19652,10 +18701,10 @@
       <c r="B19" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19666,10 +18715,10 @@
       <c r="B20" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19680,10 +18729,10 @@
       <c r="B21" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19694,10 +18743,10 @@
       <c r="B22" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19708,10 +18757,10 @@
       <c r="B23" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19722,10 +18771,10 @@
       <c r="B24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19736,10 +18785,10 @@
       <c r="B25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19750,10 +18799,10 @@
       <c r="B26" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19764,10 +18813,10 @@
       <c r="B27" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19778,10 +18827,10 @@
       <c r="B28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19792,10 +18841,10 @@
       <c r="B29" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19806,10 +18855,10 @@
       <c r="B30" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19820,10 +18869,10 @@
       <c r="B31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19834,10 +18883,10 @@
       <c r="B32" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19848,10 +18897,10 @@
       <c r="B33" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19862,10 +18911,10 @@
       <c r="B34" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19876,10 +18925,10 @@
       <c r="B35" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19890,10 +18939,10 @@
       <c r="B36" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19904,10 +18953,10 @@
       <c r="B37" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19918,10 +18967,10 @@
       <c r="B38" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19932,10 +18981,10 @@
       <c r="B39" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19946,10 +18995,10 @@
       <c r="B40" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19960,10 +19009,10 @@
       <c r="B41" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19974,10 +19023,10 @@
       <c r="B42" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19988,10 +19037,10 @@
       <c r="B43" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20002,10 +19051,10 @@
       <c r="B44" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20016,10 +19065,10 @@
       <c r="B45" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20030,10 +19079,10 @@
       <c r="B46" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20044,10 +19093,10 @@
       <c r="B47" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20058,10 +19107,10 @@
       <c r="B48" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20072,10 +19121,10 @@
       <c r="B49" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20086,10 +19135,10 @@
       <c r="B50" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20100,10 +19149,10 @@
       <c r="B51" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20114,10 +19163,10 @@
       <c r="B52" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20128,10 +19177,10 @@
       <c r="B53" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20142,10 +19191,10 @@
       <c r="B54" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20156,10 +19205,10 @@
       <c r="B55" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20170,10 +19219,10 @@
       <c r="B56" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20184,10 +19233,10 @@
       <c r="B57" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20198,10 +19247,10 @@
       <c r="B58" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20212,10 +19261,10 @@
       <c r="B59" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20226,10 +19275,10 @@
       <c r="B60" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20240,10 +19289,10 @@
       <c r="B61" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20254,10 +19303,10 @@
       <c r="B62" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20265,13 +19314,13 @@
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20282,10 +19331,10 @@
       <c r="B64" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20296,10 +19345,10 @@
       <c r="B65" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20310,10 +19359,10 @@
       <c r="B66" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20324,10 +19373,10 @@
       <c r="B67" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20338,10 +19387,10 @@
       <c r="B68" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20352,10 +19401,10 @@
       <c r="B69" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20366,10 +19415,10 @@
       <c r="B70" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20380,10 +19429,10 @@
       <c r="B71" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20394,10 +19443,10 @@
       <c r="B72" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20408,10 +19457,10 @@
       <c r="B73" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20422,10 +19471,10 @@
       <c r="B74" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20436,10 +19485,10 @@
       <c r="B75" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20450,10 +19499,10 @@
       <c r="B76" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20464,10 +19513,10 @@
       <c r="B77" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20478,10 +19527,10 @@
       <c r="B78" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20492,10 +19541,10 @@
       <c r="B79" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20503,13 +19552,13 @@
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20520,10 +19569,10 @@
       <c r="B81" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20534,10 +19583,10 @@
       <c r="B82" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20548,10 +19597,10 @@
       <c r="B83" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20562,10 +19611,10 @@
       <c r="B84" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20576,10 +19625,10 @@
       <c r="B85" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -20590,146 +19639,26 @@
       <c r="B86" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" ht="15.0" customHeight="1">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" ht="15.0" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" ht="15.0" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" ht="15.0" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
-    </row>
-    <row r="91" ht="15.0" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" ht="15.0" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" ht="15.0" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-    </row>
-    <row r="94" ht="15.0" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-    </row>
-    <row r="95" ht="15.0" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-    </row>
-    <row r="96" ht="15.0" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-    </row>
-    <row r="97" ht="15.0" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" ht="15.0" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" ht="15.0" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" ht="15.0" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-    </row>
-    <row r="101" ht="15.0" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-    </row>
-    <row r="102" ht="15.0" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" ht="15.0" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="12"/>
-    </row>
-    <row r="104" ht="15.0" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="12"/>
-    </row>
-    <row r="105" ht="15.0" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" ht="15.0" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="12"/>
-    </row>
-    <row r="107" ht="15.0" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="12"/>
-    </row>
-    <row r="108" ht="15.0" customHeight="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="12"/>
+      <c r="C87" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20764,10 +19693,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -20778,10 +19707,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -20792,10 +19721,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -20806,10 +19735,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -20820,10 +19749,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -20834,10 +19763,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -20848,10 +19777,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -20862,10 +19791,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -20876,10 +19805,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -20890,9 +19819,9 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -20904,9 +19833,9 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -20918,9 +19847,9 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -20932,9 +19861,9 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -20946,9 +19875,9 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -20960,9 +19889,9 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -20974,74 +19903,14 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21068,10 +19937,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -21082,10 +19951,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -21096,10 +19965,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -21110,10 +19979,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -21124,10 +19993,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -21138,10 +20007,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -21152,10 +20021,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -21166,10 +20035,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -21180,10 +20049,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -21194,10 +20063,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -21208,10 +20077,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -21222,10 +20091,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -21236,10 +20105,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -21250,10 +20119,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -21264,10 +20133,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -21278,10 +20147,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21292,10 +20161,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -21306,10 +20175,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -21320,10 +20189,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -21334,10 +20203,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -21348,10 +20217,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -21362,10 +20231,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21376,10 +20245,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21390,10 +20259,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -21404,10 +20273,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -21418,10 +20287,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -21432,10 +20301,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -21446,10 +20315,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -21460,10 +20329,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -21474,10 +20343,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -21488,10 +20357,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -21502,10 +20371,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -21516,10 +20385,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -21530,10 +20399,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -21544,10 +20413,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -21558,10 +20427,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -21572,10 +20441,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -21586,10 +20455,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -21600,10 +20469,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C39" s="18" t="s">
         <v>542</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -21614,10 +20483,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -21628,10 +20497,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -21642,10 +20511,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -21656,10 +20525,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -21670,10 +20539,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -21684,10 +20553,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -21698,10 +20567,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -21712,10 +20581,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -21726,10 +20595,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -21740,10 +20609,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -21754,10 +20623,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -21767,11 +20636,11 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>565</v>
+      <c r="B51" s="18" t="s">
+        <v>566</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -21782,10 +20651,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -21796,10 +20665,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -21810,10 +20679,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C54" s="20" t="s">
         <v>572</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>573</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -21824,10 +20693,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C55" s="20" t="s">
         <v>574</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>575</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -21838,10 +20707,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C56" s="20" t="s">
         <v>576</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>577</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -21899,10 +20768,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -21913,10 +20782,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -21927,10 +20796,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -21941,10 +20810,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -21955,10 +20824,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -21969,10 +20838,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -21983,10 +20852,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22000,7 +20869,7 @@
         <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -22011,10 +20880,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22025,10 +20894,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -22039,10 +20908,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -22053,10 +20922,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -22067,10 +20936,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22081,10 +20950,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22095,10 +20964,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -22109,10 +20978,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22123,10 +20992,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -22137,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22151,10 +21020,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22165,10 +21034,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22179,10 +21048,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22193,10 +21062,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -22207,10 +21076,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -22221,10 +21090,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -22235,10 +21104,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -22249,10 +21118,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -22263,10 +21132,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22277,10 +21146,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -22291,10 +21160,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22305,10 +21174,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -22319,10 +21188,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -22333,10 +21202,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -22347,10 +21216,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -22361,10 +21230,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22375,10 +21244,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22389,10 +21258,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22403,10 +21272,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22417,10 +21286,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22431,10 +21300,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22445,10 +21314,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22459,10 +21328,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -22473,10 +21342,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -22487,10 +21356,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -22501,10 +21370,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -22515,10 +21384,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -22529,10 +21398,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -22543,10 +21412,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -22557,10 +21426,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -22571,10 +21440,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -22585,10 +21454,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -22599,10 +21468,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -22613,10 +21482,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -22627,10 +21496,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -22641,10 +21510,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -22655,10 +21524,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -22667,7 +21536,7 @@
     <row r="56" ht="15.0" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -22763,10 +21632,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -22777,10 +21646,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -22791,10 +21660,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -22805,10 +21674,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -22819,10 +21688,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -22833,10 +21702,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -22847,10 +21716,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22861,10 +21730,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -22875,10 +21744,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22889,10 +21758,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -22903,10 +21772,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -22917,10 +21786,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -22931,10 +21800,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22945,10 +21814,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22959,10 +21828,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -22973,10 +21842,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22987,10 +21856,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -23001,10 +21870,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -23015,10 +21884,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -23029,10 +21898,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -23043,10 +21912,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -23057,10 +21926,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -23071,10 +21940,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -23085,10 +21954,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -23099,10 +21968,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -23113,10 +21982,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -23127,10 +21996,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -23141,10 +22010,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -23155,10 +22024,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -23169,10 +22038,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -23183,10 +22052,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -23197,10 +22066,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -23211,10 +22080,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -23225,10 +22094,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -23239,10 +22108,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -23253,10 +22122,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -23267,10 +22136,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -23281,10 +22150,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -23295,10 +22164,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -23309,10 +22178,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -23323,10 +22192,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -23337,10 +22206,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -23351,10 +22220,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -23365,10 +22234,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -23379,10 +22248,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -23611,10 +22480,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -23625,10 +22494,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23639,10 +22508,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -23653,10 +22522,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -23667,10 +22536,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -23681,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -23695,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -23709,10 +22578,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -23723,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -23737,10 +22606,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -23751,10 +22620,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -23765,10 +22634,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -23779,10 +22648,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -23793,10 +22662,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -23807,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -23821,10 +22690,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -23835,10 +22704,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -23849,10 +22718,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -23863,10 +22732,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -23877,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -23891,10 +22760,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -23905,10 +22774,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -23919,10 +22788,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -23933,10 +22802,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -23947,10 +22816,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -23961,10 +22830,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -23975,10 +22844,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -23989,10 +22858,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -24003,10 +22872,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -24017,10 +22886,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1197">
   <si>
     <t>Yes</t>
   </si>
@@ -6751,7 +6751,7 @@
     <t>SW-java srialization and deserialization</t>
   </si>
   <si>
-    <t>SW- rest api framewokr</t>
+    <t>SW- rest api framework</t>
   </si>
   <si>
     <t>SW - complex api atuomation scenario</t>
@@ -6764,6 +6764,38 @@
   </si>
   <si>
     <t>SW - prog to print second highest number in array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> public static void main(String[] args)
+    {
+        int arr[] = { 100,14, 46, 47, 94, 94, 52, 86, 36, 94, 89 };
+        int largest = 0;
+        int secondLargest = 0;
+        System.out.println("The given array is:");
+        for (int i = 0; i &lt; arr.length; i++)
+        {
+            System.out.print(arr[i] + "\t");
+        }
+        for (int i = 0; i &lt; arr.length; i++)
+        {
+            if (arr[i] &gt; largest)
+            {
+                secondLargest = largest;
+                largest = arr[i];
+            }
+            else if (arr[i] &gt; secondLargest)
+            {
+                secondLargest = arr[i];
+            }
+        }
+        System.out.println("\nSecond largest number is:" + secondLargest);
+        System.out.println("Largest Number is: "  +largest);
+    }
+Now, the logic is when the element at the 0th index is greater than the largest,
+ then assign arr[0] to largest and secondLargest to largest. Again, if the element at the 0th index is greater than the secondLargest, 
+then assign secondLargest to arr[0].
+This will be repeated for each iteration and ultimately after comparing or completing iterations up to array length will give you the secondLargest element.
+</t>
   </si>
   <si>
     <t>SW - java anonymouse class usage</t>
@@ -11676,7 +11708,9 @@
       <c r="B15" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>1162</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
@@ -11686,10 +11720,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -11700,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -11714,10 +11748,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -11728,10 +11762,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -11742,10 +11776,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -11770,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>1055</v>
@@ -11784,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>1057</v>
@@ -11798,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>1059</v>
@@ -11812,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1061</v>
@@ -11826,10 +11860,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -11837,13 +11871,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -11854,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -11868,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -11882,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -11896,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -11910,10 +11944,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -11944,10 +11978,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>3</v>
@@ -11976,10 +12010,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -11990,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12004,10 +12038,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -26,14 +26,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="0rpaBIhqBp2v8slEKK4BR6EFEV4pmazcHxsFC8C/Ppo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="rWalvdW0u7Y07s+L/c+A2Sk4Dm2WTZ8o2jbpBAhuzM8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1246">
   <si>
     <t>Yes</t>
   </si>
@@ -1071,6 +1071,13 @@
 Burn-down chart can be used to identify potential bottlenecks in a project, while velocity can be used to compare the performance of different teams/sprints</t>
   </si>
   <si>
+    <t>Java version</t>
+  </si>
+  <si>
+    <t>Latest 18, 
+but we are using 11</t>
+  </si>
+  <si>
     <t>this</t>
   </si>
   <si>
@@ -1371,22 +1378,152 @@
 We add final keyword when we don’t want override exiting values and declare it as final also once declared it is unchangeable and read only.</t>
   </si>
   <si>
+    <t>collection framework</t>
+  </si>
+  <si>
     <t>Array vs arraylist</t>
   </si>
   <si>
     <t>Default vs protected</t>
   </si>
   <si>
-    <t xml:space="preserve"> hashmap n hash table</t>
-  </si>
-  <si>
-    <t>hashmap is not thread-safe , Hashtable is thread-safe ; Null keys and null values allowed in hashmap , in Hashtable null keys and null values not allowed. hash map is faster compared to hash table</t>
+    <t xml:space="preserve">HashMap </t>
+  </si>
+  <si>
+    <t>can have a Null key and Multiple Null values but HashTable can not have Null key and Null values.</t>
+  </si>
+  <si>
+    <t>hashmap n hash table</t>
+  </si>
+  <si>
+    <t>hash map and hash table both are based on key - value kind of data format ,
+and both are coming from MAP interface.
+hashmap is not thread-safe , 
+Hashtable is thread-safe ;
+ Null keys and null values allowed in hashmap , 
+in Hashtable null keys and null values not allowed.
+ hash map is faster compared to hash table
+--------------------
+import java.util.HashMap;
+import java.util.Hashtable;
+public class HashMapVsHashtable {
+    public static void main(String[] args) {
+        // Create a HashMap
+        HashMap&lt;String, Integer&gt; hashMap = new HashMap&lt;&gt;();
+        // Add elements to the HashMap
+        hashMap.put("John Doe", 30);
+        hashMap.put("Jane Doe", 25);
+        hashMap.put("Peter Parker", 20);
+        // Print the contents of the HashMap
+        System.out.println("HashMap contents:");
+        for (String key : hashMap.keySet()) {
+            System.out.println(key + ": " + hashMap.get(key));
+        }
+        // Create a Hashtable
+        Hashtable&lt;String, Integer&gt; hashtable = new Hashtable&lt;&gt;();
+        // Add elements to the Hashtable
+        hashtable.put("John Doe", 30);
+        hashtable.put("Jane Doe", 25);
+        hashtable.put("Peter Parker", 20);
+        // Print the contents of the Hashtable
+        System.out.println("\nHashtable contents:");
+        for (String key : hashtable.keySet()) {
+            System.out.println(key + ": " + hashtable.get(key));
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>Arraylist vs vector</t>
+  </si>
+  <si>
+    <t>ArrayList is a dynamic array  , where its size grows and shrinks dynamically
+its NOT thread-safe.   multiple threads cannot safely access and modify an ArrayList object at the same time.
+Vector behaviour also same  but   is thread-safe. 
+  multiple threads can safely access and modify a Vector object at the same time. 
+ArrayList is Fast but Vector is slow
+ArrayList&lt;String&gt; arrayList = new ArrayList&lt;&gt;();
+        // Add elements to the ArrayList
+        arrayList.add("Element 1");
+        arrayList.add("Element 2");
+        arrayList.add("Element 3");
+        // Create a Vector
+        Vector&lt;String&gt; vector = new Vector&lt;&gt;();
+        // Add elements to the Vector
+        vector.add("Element 1");
+        vector.add("Element 2");
+        vector.add("Element 3");
+        // Iterate over the ArrayList and print the elements
+        System.out.println("ArrayList elements:");
+        for (String element : arrayList) {
+            System.out.println(element);
+        }
+        // Iterate over the Vector and print the elements
+        System.out.println("Vector elements:");
+        for (String element : vector) {
+            System.out.println(element);
+        }</t>
+  </si>
+  <si>
+    <t>ArrayList is NOT ThreadSafe</t>
+  </si>
+  <si>
+    <t>sometimes you need to restrict access one thread at a time by implementing Synchronization.
+Collection list3 = Collections.synchronizedList(Arrays.asList(1, 2, 3, 4, 5));
+  synchronized (list3) {
+   Iterator j = list3.iterator();
+   while (j.hasNext())
+    System.out.println(j.next());
+  }</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Vector is a dynamic array  , where its size grows and shrinks dynamically  
+  multiple threads can safely access and modify a Vector object at the same time. 
+Here arraylist also similar , but its not thread safe</t>
   </si>
   <si>
     <t>exceptions</t>
   </si>
   <si>
     <t>jdbc sample code</t>
+  </si>
+  <si>
+    <t>we used jdbc connections to achieve connecting to data base and do the validation ....
+frist we create connection object with the help of connection string
+then we can create a statement object on top of connection object created
+Then we should use executeQuery method to execute the query as per need and put the results into ResultSet object
+finally close all the connections, statement object created
+We can loop our resulset / convert into convinient collection type to further use
+import java.sql.*;
+public class JdbcSampleCode {
+    public static void main(String[] args) throws SQLException {
+        // Connect to the database
+        Connection connection = DriverManager.getConnection("jdbc:mysql://localhost:3306/my_database", "root", "password");
+        // Create a statement
+        Statement statement = connection.createStatement();
+        // Execute a query to select all rows from the table
+        ResultSet resultSet = statement.executeQuery("SELECT * FROM my_table");
+        // Loop through the rows of the result set
+        while (resultSet.next()) {
+            // Print the values of the columns
+            System.out.println(resultSet.getInt("id") + " " + resultSet.getString("name"));
+        }
+        // Close the result set, statement, and connection
+        resultSet.close();
+        statement.close();
+        connection.close();
+// Loop through the rows of the result set
+while (resultSet.next()) {
+    // Print the values of the columns
+    System.out.println(resultSet.getInt("id") + " " + resultSet.getString("name"));
+    // Print the result set content
+    System.out.println(resultSet.toString());
+}
+    }
+}</t>
   </si>
   <si>
     <t>Thread parallesim</t>
@@ -1403,9 +1540,6 @@
   </si>
   <si>
     <t>Disadvantages of threads</t>
-  </si>
-  <si>
-    <t>collection framework</t>
   </si>
   <si>
     <t>Reflection</t>
@@ -1441,18 +1575,6 @@
 finally (0 or 1)</t>
   </si>
   <si>
-    <t>ArrayList is NOT ThreadSafe</t>
-  </si>
-  <si>
-    <t>sometimes you need to restrict access one thread at a time by implementing Synchronization.
-Collection list3 = Collections.synchronizedList(Arrays.asList(1, 2, 3, 4, 5));
-  synchronized (list3) {
-   Iterator j = list3.iterator();
-   while (j.hasNext())
-    System.out.println(j.next());
-  }</t>
-  </si>
-  <si>
     <t>thread safe</t>
   </si>
   <si>
@@ -1490,12 +1612,6 @@
 System.out.println(s1.equals(s2)); //True</t>
   </si>
   <si>
-    <t xml:space="preserve">HashMap </t>
-  </si>
-  <si>
-    <t>can have a Null key and Multiple Null values but HashTable can not have Null key and Null values.</t>
-  </si>
-  <si>
     <t>List and Set in java</t>
   </si>
   <si>
@@ -1512,6 +1628,15 @@
   </si>
   <si>
     <t>When we want to perform an operation/action when an object is created we use constructors. Java has default and parameterized constructor.When a new object is created in a program a constructor gets invoked corresponding to the class. It is a method which has the same name as class name. If a user doesn’t create a constructor implicitly a default constructor will be created. The constructor can be overloaded.If the user created a constructor with a parameter then he should create another constructor explicitly without a parameter</t>
+  </si>
+  <si>
+    <t>String vs string buffer</t>
+  </si>
+  <si>
+    <t>String is immutable, while StringBuffer is mutable.
+&gt;&gt; once a String object is created, its value cannot be changed. In contrast, the value of a StringBuffer object can be changed at any time.
+String is thread-safe, while StringBuffer is not.
+&gt; multiple threads can access a String object safely without causing any problems. However, if multiple threads try to access a StringBuffer object at the same time, it can lead to unexpected results.</t>
   </si>
   <si>
     <t>String Buffer</t>
@@ -1541,6 +1666,41 @@
   </si>
   <si>
     <t>dynamic method dispactch</t>
+  </si>
+  <si>
+    <t>Selenium version</t>
+  </si>
+  <si>
+    <t>latest : 4.8.0 
+am using 4.0.2</t>
+  </si>
+  <si>
+    <t>Hierarchy of webdriver / super interface of webdriver / parent interface</t>
+  </si>
+  <si>
+    <t>Interface ::  SearchContext is the parent most 
+then &gt;&gt;  WebDriver Interface
+then &gt;&gt; Remote web driver class
+then &gt;&gt; chromedriver / firefox driver / iedriver   classes
+--------------
+SearchContext contains :  findElement​(By by) and findElements(By by). 
+webdriver contains :
+get(): Loads the given URL in the browser.
+getTitle(): Gets the title of the current page.
+findElements(): Finds a list of DOM elements on the page.
+close(): Closes the browser.
+quit(): Quits the browser.</t>
+  </si>
+  <si>
+    <t>webdriver interface methods</t>
+  </si>
+  <si>
+    <t>webdriver contains :
+get(): Loads the given URL in the browser.
+getTitle(): Gets the title of the current page.
+findElements(): Finds a list of DOM elements on the page.
+close(): Closes the browser.
+quit(): Quits the browser.</t>
   </si>
   <si>
     <t>Open Browser with out downloading driver.exe file</t>
@@ -2110,6 +2270,12 @@
     <t>Switch between frames</t>
   </si>
   <si>
+    <t>switchTo will does the job for us
+we switch to frame, using index  or ID or name of the frame
+driver.switchTo().frame(0)
+driver.switchTo().frame('name')</t>
+  </si>
+  <si>
     <t>alerts</t>
   </si>
   <si>
@@ -2466,6 +2632,28 @@
     <t>tettt</t>
   </si>
   <si>
+    <t>right click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To right click in Selenium, you can use the Actions class. The Actions class provides a way to simulate user interaction with the browser.
+ # Create an ActionChains object
+actions = ActionChains(driver)
+# Right click on the element
+actions.context_click(element).perform()
+</t>
+  </si>
+  <si>
+    <t>element size / getSize() / width , height</t>
+  </si>
+  <si>
+    <t>WebElement buttonElement = driver.findElement(By.id("my-button"));
+        // Get the size of the button
+        int width = buttonElement.getSize().getWidth();
+        int height = buttonElement.getSize().getHeight();
+        // Print the size of the button
+        System.out.println("The size of the button is: " + width + " x " + height);</t>
+  </si>
+  <si>
     <t>ReportNG</t>
   </si>
   <si>
@@ -2492,14 +2680,10 @@
     <t>parallel execution</t>
   </si>
   <si>
-    <t>&lt;suite name = "Parallel Testing Suite"&gt;
-   &lt;test name = "Parallel Tests" parallel = "classes" thread-count = "2"&gt;
-      &lt;classes&gt;
-         &lt;class name = "ChromeTest" /&gt;
-         &lt;class name = "FirefoxTest" /&gt;
-      &lt;/classes&gt;
-   &lt;/test&gt;
-&lt;/suite&gt;</t>
+    <t>we can run tests in parallel with the help of testng.xml file 
+at TEST tag  add Parallel = classes  and thread-count = 2 
+we can run methods in parallel and suites in parallel too
+we can put thread count also according to our need , so that that many number of tests will run in parallel</t>
   </si>
   <si>
     <t>expected exceptions</t>
@@ -2620,38 +2804,100 @@
     <t>custom reporting</t>
   </si>
   <si>
+    <t>you can override the ITestListener Interface and write our own logic to build custom reports.
+we have mtthods like, onTestStart() , on Test Success() , on TestFailure() , on Test Skipped()
+accordingly we can write own logic ......
+we have to add the listener in suite.xml file under LISTENER tag
+-------------------------–
+&lt;listeners&gt;
+        &lt;listener class="MyCustomListener" /&gt;
+    &lt;/listeners&gt;
+import org.testng.ITestListener;
+import org.testng.ITestResult;
+public class MyCustomListener implements ITestListener {
+    @Override
+    public void onTestStart(ITestResult result) {
+        System.out.println("Test " + result.getName() + " started.");
+    }
+    @Override
+    public void onTestSuccess(ITestResult result) {
+        System.out.println("Test " + result.getName() + " succeeded.");
+    }
+    @Override
+    public void onTestFailure(ITestResult result) {
+        System.out.println("Test " + result.getName() + " failed.");
+    }
+    @Override
+    public void onTestSkipped(ITestResult result) {
+        System.out.println("Test " + result.getName() + " skipped.");
+    }
+}</t>
+  </si>
+  <si>
     <t>@Test [5 attributs pls]</t>
   </si>
   <si>
-    <t>Testng parallel</t>
-  </si>
-  <si>
-    <t>what is your reporting framework</t>
-  </si>
-  <si>
-    <t>what are all TestNg atrributes you have used it</t>
+    <t>i have used ReportNG framework for my reporting
+few simple steps are there to configure--
+Add the ReportNG dependency  via maven
+Create a ReportNG configuration file. to specify the output directory for the report and the report format.
+Initialize ReportNG in your Selenium test case 
+Log test events to ReportNG. 
+You can use the ExtentTest class to log test events such as start, pass, fail, and skip.</t>
+  </si>
+  <si>
+    <t>what is your reporting framework / ReportNG</t>
   </si>
   <si>
     <t>how to ignore a test case to run</t>
   </si>
   <si>
-    <t>TestNG sequence</t>
+    <t>Basically couple of options available
+Use the @Ignore annotation  to mark a test method as ignored. Ignored test methods will be skipped when you run your test suite.
+ in a testng.xml file, you can use the &lt;exclude&gt; tag.
+both does the same thing</t>
+  </si>
+  <si>
+    <t>TestNG annotation sequence</t>
   </si>
   <si>
     <t xml:space="preserve">@BeforeTest
   @BeforeClass
   @Beforemethod
-  	@Test  // main
+          @Test  // main
   @Aftermethod
   @Beforemethod
-  	@Test  // main
+          @Test  // main
   @Aftermethod
-        	@Beforemethod
-                    	@Test  // main
-        	@Aftermethod
+                @Beforemethod
+                            @Test  // main
+                @Aftermethod
    @AfterClass
   @AfterTest 
 </t>
+  </si>
+  <si>
+    <t>TestNG Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Test: for  any method to convert as a test method.
+@BeforeMethod: runs  before each test method  
+@AfterMethod: runs  after each test method 
+@BeforeTest:   executed before each test tag in suite.xml file
+@AfterTest:  executed after each test tag in suite.xml file
+@BeforeSuite:   before any all of the classes in a  test suite  
+@AfterSuite:  after any all of the classes in a  test suite  
+@BeforeClass: before each test class
+@AfterClass: after each test class
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to order test execution </t>
+  </si>
+  <si>
+    <t>we have " priority"  attribue in @ Test annotation  to maintain order
+@Test(priority = 1)
+method1() {}</t>
   </si>
   <si>
     <t>what is API</t>
@@ -3259,6 +3505,25 @@
         System.out.println(json);
     }
 }</t>
+  </si>
+  <si>
+    <t>jsonPath() all examples</t>
+  </si>
+  <si>
+    <t>$.person.user.name.             // simple
+$.items[?(@.price &gt; 10)]             // extract all elements of the items array that have a price greater than 10:
+$.items[?(@.name =~ /^[A-Z]+$/)]            // Regex 
+$.items.sum({@.price})             // airthemtic operations
+$.items.min({@.price})
+String name = response
+    .jsonPath()
+    .getString("$.person.user.name");
+List&lt;Item&gt; items = response
+    .jsonPath()
+    .get("$.items[?(@.price &gt; 10)]");
+Double totalPrice = response
+    .jsonPath()
+    .getDouble("$.items.sum({@.price})");</t>
   </si>
   <si>
     <t>Palindrome</t>
@@ -3548,7 +3813,28 @@
 We then update the firstTerm and secondTerm for the next iteration.</t>
   </si>
   <si>
-    <t>second-highest number in an array</t>
+    <t>largest / highest number in an array</t>
+  </si>
+  <si>
+    <t>Initialize a variable to store the largest number.
+Iterate over the array and compare each element to the largest number.
+If the current element is greater than the largest number, update the largest number to the current element.
+Once you have finished iterating over the array, the largest number will be stored in the variable.
+public class LargestNumberInArray {
+    public static void main(String[] args) {
+        int[] array = {1, 5, 3, 7, 2};
+        int largestNumber = array[0];
+        for (int i = 1; i &lt; array.length; i++) {
+            if (array[i] &gt; largestNumber) {
+                largestNumber = array[i];
+            }
+        }
+        System.out.println("The largest number in the array is: " + largestNumber);
+    }
+}</t>
+  </si>
+  <si>
+    <t>second highest number in an array / second largest</t>
   </si>
   <si>
     <t xml:space="preserve"> public static void main(String[] args)
@@ -4287,6 +4573,24 @@
     }
 }
 </t>
+  </si>
+  <si>
+    <t>pattern 4 : 1  12   123</t>
+  </si>
+  <si>
+    <t>1
+1 2
+1 2 3
+public class PrintPattern {
+    public static void main(String[] args) {
+        for (int i = 1; i &lt;= 3; i++) {
+            for (int j = 1; j &lt;= i; j++) {
+                System.out.print(j + " ");
+            }
+            System.out.println();
+        }
+    }
+}</t>
   </si>
   <si>
     <t>fizz bizz</t>
@@ -5383,6 +5687,23 @@
 i was working  in transaction issues  team , we will find out the reasons and build dashboards for the managment team - for further analysis</t>
   </si>
   <si>
+    <t>Equifax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equifax's core business is providing credit reports and analytics to lenders and businesses.
+Equifax's analytics services help lenders and businesses to make better decisions about their customers and suppliers, and to prevent fraud.
+Equifax offers consumers a variety of credit monitoring and identity theft protection services to help them protect their credit and identity. 
+These services include monitoring credit reports for changes, sending alerts about suspicious activity, and helping consumers to recover from identity theft
+I was worked in  Dark web monitoring:
+This module monitors the dark web for any mention of the user's personal information.
+ If the module finds any mention of the user's personal information, it sends an alert to the user.
+How it works: by crawling dark web websites and forums, and searching for dark web market listings. The module have a technique to identify mentions of the user's personal information.
+Benefits: This module can help users to identify and respond to identity theft early. 
+By monitoring the dark web, the module can identify instances where the user's personal information has been leaked or compromised. 
+This allows the user to take steps to mitigate the damage, such as changing their passwords and freezing their credit accounts.
+ </t>
+  </si>
+  <si>
     <t>DELETE vs TRUNCATE</t>
   </si>
   <si>
@@ -5901,6 +6222,26 @@
     <t>I have extensive experience integrating automated tests into CI/CD pipelines. I've used tools like Jenkins to trigger automated tests upon code commits, ensuring quick feedback to development teams. I've also integrated reporting and notifications to improve visibility and collaboration.</t>
   </si>
   <si>
+    <t>Cypress version</t>
+  </si>
+  <si>
+    <t>Latest : 13.3.1
+i was using still 12.14.0, have to upgrade it</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cypress roles and responsibilites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop and maintain Cypress tests:
+Execute Cypress tests: 
+Debug and fix Cypress tests: 
+Improve the Cypress testing process: 
+Identify bugs via Cypress tests: </t>
+  </si>
+  <si>
     <t>What is the Cypress</t>
   </si>
   <si>
@@ -6064,9 +6405,16 @@
     <t xml:space="preserve">We can create a test suit in Cypress using describe() block or context() block. 
 The describe() block acts as a suite, and inside that block, each test can be written as a single it() block.
 describe('Test Suite', () =&gt; {
-    it('Tc01', () =&gt; {
-        //code
-    })
+    it('navigates to google.com and searches for some text', () =&gt; {
+  // Visit the Google home page
+  cy.visit('https://www.google.com');
+  // Type the search text into the search bar
+  cy.get('#searchbox input[type="text"]').type('some text');
+  // Click the search button
+  cy.get('.jslphf-SwQIc').click();
+  // Verify that the search results page contains the search text
+  cy.get('.srg .g').contains('some text');
+});
 })
 </t>
   </si>
@@ -6248,7 +6596,10 @@
   <si>
     <t>In Cypress, we don’t need to add any dependency or plugin to capture screenshots like we used to do in Selenium. 
 Cypress has the inbuilt capability to capture screenshots of the fail tests.
-cy.screenshot()</t>
+cy.screenshot() // default file name 
+cy.screenshot('fileName);
+This command will take a screenshot of the entire browser window and save it to the screenshots directory in the Cypress project root.
+cy.get('#my-element').screenshot('fileName'); // specific element</t>
   </si>
   <si>
     <t>cypress commands</t>
@@ -6634,6 +6985,90 @@
 cy.get('#tableID').get('tbody tr td').each(($ele)=&gt;{
 cy.log($ele.text());
 })</t>
+  </si>
+  <si>
+    <t>frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with the help of cy.frame() method or cy.iframe() method we can switch to frames and perform requried operations.
+to switch back to parent , cy.parent() does the job ...
+  // Switch to the frame
+  cy.frame('#my-frame') OR cy.iframe('my-frame')
+  // Interact with the elements inside the frame
+  cy.get('#my-input').type('Hello world!')
+  // Switch back to the main page
+  cy.parent()
+ </t>
+  </si>
+  <si>
+    <t>desktop based / non web / windows based</t>
+  </si>
+  <si>
+    <t>Unfortunately, desktop app automation is not possible with cypress or with any cypress plugin.
+Cypress code for interacting with elements runs inside the browser, 
+which makes it impossible to interact with anything outside the browser.</t>
+  </si>
+  <si>
+    <t>exception in cypress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeoutException:   is thrown when a Cypress command times out.
+ For example, if you use the cy.get() command to wait for an element to appear, but the element does not appear within the specified timeout period, Cypress will throw a TimeoutException.
+ElementNotFoundError:  is thrown when Cypress cannot find an element on the page.
+ For example, if you use the cy.get() command to wait for an element with the ID my-element,
+ but the element does not exist on the page, Cypress will throw an ElementNotFoundError.
+CypressError: This exception is thrown when Cypress encounters an unexpected error. 
+ </t>
+  </si>
+  <si>
+    <t>cypress.js usage</t>
+  </si>
+  <si>
+    <t>we can define
+view port size / browser dimenstions test
+reporitng information
+re-try config
+Request timeout
+page load time out
+global test data / fixture
+------------
+// Define a global override to set the default viewport size
+Cypress.config('viewportWidth', 1280);
+Cypress.config('viewportHeight', 720);
+// Define a global fixture
+Cypress.fixtures.add('users.json', [
+  {
+    name: 'John Doe',
+    email: 'john.doe@example.com',
+    password: 'password123',
+  },
+  {
+    name: 'Jane Doe',
+    email: 'jane.doe@example.com',
+    password: 'password456',
+  },
+]);
+// Define a global plugin
+Cypress.on('uncaught:exception', (error) =&gt; {
+  // Handle the uncaught exception
+});</t>
+  </si>
+  <si>
+    <t>which test you automated</t>
+  </si>
+  <si>
+    <t>1. first and fore most login to the system
+2. configure alerts, email alerts , message alerts
+2. navigate to the detection system
+3. pass the list of applicatons to search 
+4. make sure to trigger the crawinling system
+5. choose different types of crawiling cold / recent / hot
+6. verify the alerts were triggered when keywords matched
+7. making sure alerts identified were correct all the time
+8. scheduling scans
+9. remidiation configuration
+10. is remidiation is executed for the configuration
+etc</t>
   </si>
   <si>
     <t>HTC/credit acceptence</t>
@@ -6859,9 +7294,6 @@
 GSON</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>SW-rest assured, save the resp to json file</t>
   </si>
   <si>
@@ -6903,6 +7335,21 @@
   </si>
   <si>
     <t>SW - reverser a string prog</t>
+  </si>
+  <si>
+    <t>some-prog xyz 123 abc matrix</t>
+  </si>
+  <si>
+    <t>int[][] matrix = {{x, y, z}, {1, 2, 3}, {'a', 'b', 'c'}};
+        // Print the matrix
+        for (int i = 0; i &lt; matrix.length; i++) {
+            for (int j = 0; j &lt; matrix[i].length; j++) {
+                System.out.print(matrix[i][j] + " ");
+            }
+            System.out.println();
+        }
+        // Print the equation x+2+c=z+2+a
+        System.out.println(matrix[0][0] + "+" + 2 + "+" + matrix[2][2] + "=" + matrix[2][0] + "+" + 2 + "+" + matrix[0][2]);</t>
   </si>
   <si>
     <t>sample</t>
@@ -6968,7 +7415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -7001,6 +7448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
@@ -7012,12 +7465,12 @@
     <font>
       <u/>
       <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
@@ -7061,12 +7514,24 @@
       <name val="Times"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -7087,7 +7552,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7114,43 +7579,52 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7159,7 +7633,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9197,10 +9671,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9211,10 +9685,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9225,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9239,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9253,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9267,10 +9741,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>848</v>
+        <v>879</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9281,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>850</v>
+        <v>881</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9295,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>852</v>
+        <v>883</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9385,114 +9859,128 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>853</v>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>884</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>854</v>
+        <v>885</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>855</v>
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>886</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>857</v>
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>888</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>859</v>
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>890</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>861</v>
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>892</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>862</v>
+        <v>893</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>863</v>
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>894</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>865</v>
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>896</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>866</v>
+        <v>897</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>867</v>
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>898</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9522,10 +10010,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>869</v>
+        <v>902</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>870</v>
+        <v>903</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9536,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>871</v>
+        <v>904</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>872</v>
+        <v>905</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9550,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>874</v>
+        <v>907</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9564,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>875</v>
+        <v>908</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>876</v>
+        <v>909</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9578,10 +10066,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>878</v>
+        <v>910</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>911</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9592,10 +10080,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>879</v>
+        <v>912</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>880</v>
+        <v>913</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9606,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>881</v>
+        <v>914</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>882</v>
+        <v>915</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9620,10 +10108,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>883</v>
+        <v>916</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9634,10 +10122,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>885</v>
+        <v>918</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>886</v>
+        <v>919</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -9648,10 +10136,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>887</v>
+        <v>920</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>888</v>
+        <v>921</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -9662,10 +10150,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>889</v>
+        <v>922</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -9675,11 +10163,11 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>891</v>
+      <c r="B12" s="24" t="s">
+        <v>924</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -9690,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -9704,10 +10192,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -9718,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>897</v>
+        <v>930</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -9732,10 +10220,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -9746,10 +10234,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -9760,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>904</v>
+        <v>937</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -9774,10 +10262,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>906</v>
+        <v>939</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -9788,10 +10276,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>907</v>
+        <v>940</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -9802,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>909</v>
+        <v>942</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>910</v>
+        <v>943</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -9816,10 +10304,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -9830,10 +10318,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -9844,10 +10332,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>916</v>
+        <v>949</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -9858,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>917</v>
+        <v>950</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -9871,11 +10359,11 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>919</v>
+      <c r="B26" s="24" t="s">
+        <v>952</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -9886,10 +10374,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -9899,11 +10387,11 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>923</v>
+      <c r="B28" s="24" t="s">
+        <v>956</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -9913,11 +10401,11 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>925</v>
+      <c r="B29" s="24" t="s">
+        <v>958</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -9927,11 +10415,11 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>927</v>
+      <c r="B30" s="24" t="s">
+        <v>960</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -9941,11 +10429,11 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>929</v>
+      <c r="B31" s="24" t="s">
+        <v>962</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -9955,11 +10443,11 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>931</v>
+      <c r="B32" s="24" t="s">
+        <v>964</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -9992,10 +10480,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>934</v>
+        <v>967</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10006,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>936</v>
+        <v>969</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10020,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>937</v>
+        <v>970</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10034,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>939</v>
+        <v>972</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10048,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>941</v>
+        <v>974</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10062,10 +10550,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>944</v>
+        <v>976</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>977</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10076,10 +10564,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>945</v>
+        <v>978</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10090,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>948</v>
+        <v>980</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>981</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10104,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>950</v>
+        <v>982</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>983</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10118,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>952</v>
+        <v>984</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>985</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10132,10 +10620,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>954</v>
+        <v>986</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>987</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10146,10 +10634,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>956</v>
+        <v>988</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>989</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10160,10 +10648,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10174,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10188,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>962</v>
+        <v>994</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>995</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10202,10 +10690,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10216,10 +10704,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10230,10 +10718,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>968</v>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>1001</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10244,10 +10732,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10258,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>972</v>
+        <v>1004</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>1005</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10272,10 +10760,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>974</v>
+        <v>1006</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>1007</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10286,10 +10774,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>976</v>
+        <v>1008</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>1009</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10300,10 +10788,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>978</v>
+        <v>1010</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>1011</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10314,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>980</v>
+        <v>1012</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>1013</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10347,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10361,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10395,10 +10883,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>986</v>
+        <v>1018</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1019</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10406,13 +10894,13 @@
     </row>
     <row r="2" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>988</v>
+        <v>1021</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1022</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10423,10 +10911,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>990</v>
+        <v>1023</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1024</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10437,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>992</v>
+        <v>1025</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1026</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10451,10 +10939,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>994</v>
+        <v>1027</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1028</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10465,10 +10953,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>996</v>
+        <v>1029</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1030</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10479,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>998</v>
+        <v>1031</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1032</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10493,10 +10981,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1000</v>
+        <v>1033</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1034</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10507,10 +10995,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1001</v>
+        <v>1035</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1036</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10521,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>1003</v>
+        <v>1037</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1038</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10535,10 +11023,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>1005</v>
+        <v>430</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1039</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10549,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>1007</v>
+        <v>1040</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1041</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10563,10 +11051,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>1009</v>
+        <v>1042</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1043</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10577,10 +11065,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>1011</v>
+        <v>1044</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1045</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10591,10 +11079,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1013</v>
+        <v>1046</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1047</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10605,10 +11093,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1015</v>
+        <v>1048</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1049</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10619,10 +11107,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>1017</v>
+        <v>1050</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1051</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10633,10 +11121,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>1019</v>
+        <v>1052</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1053</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10647,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>1020</v>
+        <v>1054</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1055</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10661,10 +11149,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>1022</v>
+        <v>1056</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1057</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10675,10 +11163,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>1024</v>
+        <v>868</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1058</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10689,10 +11177,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1026</v>
+        <v>1059</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1060</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10703,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1028</v>
+        <v>1061</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1062</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10717,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>1030</v>
+        <v>1063</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1064</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10731,10 +11219,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>1032</v>
+        <v>1065</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1066</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -10745,10 +11233,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>1034</v>
+        <v>1067</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1068</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -10759,10 +11247,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1036</v>
+        <v>1069</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1070</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -10773,10 +11261,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1038</v>
+        <v>1071</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>1072</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -10787,10 +11275,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1040</v>
+        <v>1073</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>1074</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -10801,10 +11289,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>1042</v>
+        <v>1075</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1076</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -10815,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>1043</v>
+        <v>1077</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>1078</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -10829,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>1045</v>
+        <v>1079</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>1080</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -10843,10 +11331,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>1047</v>
+        <v>331</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>1081</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -10857,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>1049</v>
+        <v>1082</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>1083</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -10871,10 +11359,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>1051</v>
+        <v>1084</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>1085</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -10885,10 +11373,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>1053</v>
+        <v>1086</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>1087</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -10899,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>1055</v>
+        <v>1088</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>1089</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -10913,10 +11401,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>1057</v>
+        <v>1090</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>1091</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -10927,10 +11415,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>1059</v>
+        <v>1092</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>1093</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -10941,10 +11429,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>1061</v>
+        <v>1094</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>1095</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -10955,10 +11443,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>1063</v>
+        <v>1096</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>1097</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -10969,10 +11457,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>1065</v>
+        <v>1098</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>1099</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -10983,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>1067</v>
+        <v>1100</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>1101</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -10997,10 +11485,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>1069</v>
+        <v>1102</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>1103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -11010,11 +11498,11 @@
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>1071</v>
+      <c r="B45" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>1105</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -11025,10 +11513,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>1073</v>
+        <v>1106</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>1107</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -11038,11 +11526,11 @@
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>1075</v>
+      <c r="B47" s="23" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>1109</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -11053,10 +11541,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>1077</v>
+        <v>1110</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>1111</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -11067,10 +11555,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>1079</v>
+        <v>1112</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>1113</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -11081,10 +11569,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>1081</v>
+        <v>1114</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>1115</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -11095,10 +11583,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>1083</v>
+        <v>1116</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>1117</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -11109,10 +11597,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>1085</v>
+        <v>1118</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>1119</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -11123,10 +11611,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>1087</v>
+        <v>1120</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>1121</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -11137,10 +11625,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>1089</v>
+        <v>1122</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>1123</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -11151,10 +11639,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>1091</v>
+        <v>1124</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>1125</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -11165,10 +11653,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1093</v>
+        <v>1126</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>1127</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -11179,10 +11667,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>1095</v>
+        <v>1128</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>1129</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -11193,10 +11681,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>1097</v>
+        <v>1130</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1131</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -11207,38 +11695,38 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>1099</v>
+        <v>1132</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>1133</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="23.25" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1101</v>
+        <v>1134</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>1135</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" ht="23.25" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>1103</v>
+        <v>1136</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>1137</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -11249,38 +11737,38 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1104</v>
+        <v>1138</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1105</v>
+        <v>1139</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" ht="23.25" customHeight="1">
+    <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>1107</v>
+        <v>1140</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>1141</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" ht="23.25" customHeight="1">
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>1109</v>
+        <v>1142</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1143</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -11291,10 +11779,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>1111</v>
+        <v>1144</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>1145</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
@@ -11305,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>1113</v>
+        <v>1146</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>1147</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -11319,38 +11807,38 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>1115</v>
+        <v>1148</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>1149</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" ht="21.0" customHeight="1">
+    <row r="68" ht="23.25" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1117</v>
+        <v>1150</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>1151</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" ht="21.0" customHeight="1">
+    <row r="69" ht="23.25" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1119</v>
+        <v>1152</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>1153</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -11361,10 +11849,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1120</v>
+        <v>1154</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -11375,38 +11863,38 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" ht="23.25" customHeight="1">
+    <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>1125</v>
+        <v>1158</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1159</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" ht="23.25" customHeight="1">
+    <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>1127</v>
+        <v>1160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1161</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -11417,10 +11905,10 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>1129</v>
+        <v>1162</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>1163</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
@@ -11431,10 +11919,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>1131</v>
+        <v>1164</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>1165</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -11445,10 +11933,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>1133</v>
+        <v>1166</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>1167</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -11459,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>1135</v>
+        <v>1168</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>1169</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
@@ -11473,18 +11961,116 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>1137</v>
+        <v>1170</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>1171</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" ht="23.25" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" ht="23.25" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" ht="21.0" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" ht="23.25" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" ht="23.25" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" ht="23.25" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B45"/>
+    <hyperlink r:id="rId1" ref="B47"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11510,10 +12096,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1139</v>
+        <v>1186</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -11524,10 +12110,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1141</v>
+        <v>1188</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1189</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -11538,10 +12124,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>1143</v>
+        <v>1190</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1191</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -11552,10 +12138,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>1145</v>
+        <v>1192</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1193</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -11566,10 +12152,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>1147</v>
+        <v>1194</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1195</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -11580,10 +12166,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>1149</v>
+        <v>1196</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1197</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -11594,10 +12180,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>1151</v>
+        <v>1198</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1199</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -11608,10 +12194,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>1153</v>
+        <v>1200</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>1201</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -11622,10 +12208,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1155</v>
+        <v>1202</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1203</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11636,10 +12222,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>571</v>
+        <v>1204</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>596</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -11650,10 +12236,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1157</v>
+        <v>1205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -11664,10 +12250,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>573</v>
+        <v>1206</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>598</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -11678,10 +12264,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>575</v>
+        <v>1207</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>600</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -11692,10 +12278,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>577</v>
+        <v>1208</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -11706,10 +12292,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1162</v>
+        <v>1209</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>1210</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -11720,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>1164</v>
+        <v>1211</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>1212</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -11734,10 +12320,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>1166</v>
+        <v>1213</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>1214</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -11748,10 +12334,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>1168</v>
+        <v>1215</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>1216</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -11762,10 +12348,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>1170</v>
+        <v>1217</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>1218</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -11776,10 +12362,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>1172</v>
+        <v>1219</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1220</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -11790,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>980</v>
+        <v>1012</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>1013</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -11804,10 +12390,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1055</v>
+        <v>1221</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1093</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -11818,10 +12404,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1057</v>
+        <v>1222</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>1095</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -11832,10 +12418,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>1059</v>
+        <v>1223</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1097</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -11846,10 +12432,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>1061</v>
+        <v>1224</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>1099</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -11860,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>1178</v>
+        <v>1225</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>1226</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -11871,13 +12457,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1179</v>
+        <v>1020</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1181</v>
+        <v>1227</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>1228</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -11888,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1183</v>
+        <v>1229</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>1230</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -11902,10 +12488,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1184</v>
+        <v>1231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1184</v>
+        <v>1231</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -11916,10 +12502,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>1186</v>
+        <v>1232</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>1233</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -11930,10 +12516,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1187</v>
+        <v>1234</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1187</v>
+        <v>1234</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -11944,12 +12530,26 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1188</v>
+        <v>1235</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1188</v>
+        <v>1235</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11978,12 +12578,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1189</v>
+        <v>1238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D1" s="24" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
@@ -12010,10 +12610,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1191</v>
+        <v>1240</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1192</v>
+        <v>1241</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12024,10 +12624,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>1194</v>
+        <v>1242</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1243</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12038,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1195</v>
+        <v>1244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1196</v>
+        <v>1245</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -12503,7 +13103,7 @@
       <c r="B8" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -12517,7 +13117,7 @@
       <c r="B9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>195</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -12699,8 +13299,8 @@
       <c r="B22" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>193</v>
+      <c r="C22" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -12711,10 +13311,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -12725,9 +13325,9 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -12741,7 +13341,7 @@
       <c r="B25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -12797,8 +13397,8 @@
       <c r="B29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>193</v>
+      <c r="C29" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -12809,10 +13409,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -12826,7 +13426,7 @@
         <v>235</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -12836,11 +13436,11 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>236</v>
+      <c r="B32" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -12850,11 +13450,11 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="10" t="s">
         <v>238</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -12864,11 +13464,11 @@
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -12878,11 +13478,11 @@
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>193</v>
+      <c r="C35" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -12892,11 +13492,11 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>193</v>
+      <c r="B36" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -12906,11 +13506,11 @@
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>243</v>
+      <c r="B37" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -12921,10 +13521,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>193</v>
+        <v>246</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -12934,11 +13534,11 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>245</v>
+      <c r="B39" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -12949,10 +13549,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -12963,10 +13563,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -12977,10 +13577,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -12991,10 +13591,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -13005,10 +13605,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -13019,10 +13619,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -13033,10 +13633,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>193</v>
+        <v>259</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -13047,10 +13647,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -13061,10 +13661,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -13075,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -13089,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -13103,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -13117,10 +13717,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -13131,10 +13731,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -13145,10 +13745,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -13159,10 +13759,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C55" s="9" t="s">
         <v>276</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -13173,10 +13773,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>193</v>
+        <v>278</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -13187,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>193</v>
+        <v>280</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -13201,10 +13801,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>193</v>
+        <v>282</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -13215,38 +13815,70 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>193</v>
+        <v>284</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
@@ -18449,6 +19081,30 @@
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
       <c r="D930" s="1"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="1"/>
+      <c r="B931" s="1"/>
+      <c r="C931" s="1"/>
+      <c r="D931" s="1"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="1"/>
+      <c r="B932" s="1"/>
+      <c r="C932" s="1"/>
+      <c r="D932" s="1"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="1"/>
+      <c r="B933" s="1"/>
+      <c r="C933" s="1"/>
+      <c r="D933" s="1"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="1"/>
+      <c r="B934" s="1"/>
+      <c r="C934" s="1"/>
+      <c r="D934" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -18483,25 +19139,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D1" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="15.0" customHeight="1">
@@ -18509,13 +19167,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>287</v>
+        <v>293</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="1">
@@ -18523,13 +19181,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="1">
@@ -18537,13 +19195,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="1">
@@ -18551,13 +19209,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="7" ht="15.0" customHeight="1">
@@ -18565,13 +19223,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>3</v>
+        <v>303</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" ht="15.0" customHeight="1">
@@ -18579,13 +19237,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>3</v>
+        <v>306</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
@@ -18593,13 +19251,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
+        <v>309</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
@@ -18607,12 +19265,12 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18621,12 +19279,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18635,12 +19293,12 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18649,12 +19307,12 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D13" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18663,13 +19321,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>313</v>
+        <v>320</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="1">
@@ -18677,12 +19335,12 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18691,12 +19349,12 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18705,13 +19363,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>3</v>
+        <v>326</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
@@ -18719,12 +19377,12 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18733,12 +19391,12 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18747,12 +19405,12 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18761,12 +19419,12 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D21" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18775,12 +19433,12 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D22" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18789,12 +19447,12 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18803,12 +19461,12 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18817,12 +19475,12 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D25" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18831,12 +19489,12 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18845,12 +19503,12 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D27" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18859,12 +19517,12 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D28" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18873,12 +19531,12 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D29" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18887,12 +19545,12 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D30" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18901,12 +19559,12 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D31" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18915,12 +19573,12 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18929,12 +19587,12 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18943,12 +19601,12 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18957,12 +19615,12 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D35" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18971,12 +19629,12 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D36" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18985,12 +19643,12 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D37" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -18999,12 +19657,12 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D38" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19013,12 +19671,12 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19027,12 +19685,12 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19041,12 +19699,12 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19055,12 +19713,12 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19069,12 +19727,12 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19083,12 +19741,12 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19097,12 +19755,12 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19111,12 +19769,12 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19125,12 +19783,12 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19139,12 +19797,12 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19153,12 +19811,12 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19167,12 +19825,12 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19181,12 +19839,12 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19195,12 +19853,12 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19209,12 +19867,12 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19223,12 +19881,12 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19237,12 +19895,12 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19251,12 +19909,12 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19265,12 +19923,12 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19279,12 +19937,12 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19293,12 +19951,12 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="D59" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19307,12 +19965,12 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="D60" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19321,12 +19979,12 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="D61" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19335,12 +19993,12 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="D62" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19348,13 +20006,13 @@
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="B63" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19363,12 +20021,12 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="D64" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19377,12 +20035,12 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D65" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19390,13 +20048,13 @@
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="B66" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19405,12 +20063,12 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D67" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19419,12 +20077,12 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19433,12 +20091,12 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="D69" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19447,12 +20105,12 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="D70" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19461,12 +20119,12 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19475,12 +20133,12 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D72" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19489,12 +20147,12 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="D73" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19503,12 +20161,12 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D74" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19517,12 +20175,12 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19531,12 +20189,12 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="D76" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19545,12 +20203,12 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D77" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19559,12 +20217,12 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19573,12 +20231,12 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D79" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19586,13 +20244,13 @@
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="B80" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19601,12 +20259,12 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D81" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19615,12 +20273,12 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="D82" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19628,13 +20286,13 @@
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="B83" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19643,12 +20301,12 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="D84" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19657,12 +20315,12 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D85" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19671,12 +20329,12 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D86" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19685,22 +20343,92 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D87" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" ht="15.0" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" ht="15.0" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" ht="15.0" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" ht="15.0" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="18.0" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="C59"/>
-    <hyperlink r:id="rId3" ref="C60"/>
-    <hyperlink r:id="rId4" ref="C61"/>
-    <hyperlink r:id="rId5" ref="C62"/>
+    <hyperlink r:id="rId1" ref="D5"/>
+    <hyperlink r:id="rId2" ref="C62"/>
+    <hyperlink r:id="rId3" ref="C63"/>
+    <hyperlink r:id="rId4" ref="C64"/>
+    <hyperlink r:id="rId5" ref="C65"/>
   </hyperlinks>
   <drawing r:id="rId6"/>
 </worksheet>
@@ -19727,10 +20455,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -19741,10 +20469,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -19755,10 +20483,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -19769,10 +20497,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -19783,10 +20511,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -19797,10 +20525,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -19811,10 +20539,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -19825,10 +20553,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -19839,10 +20567,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -19853,10 +20581,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>193</v>
+        <v>478</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -19867,10 +20595,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>193</v>
+        <v>480</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -19881,10 +20609,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -19895,10 +20620,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>193</v>
+        <v>483</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -19909,38 +20634,38 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>193</v>
+        <v>485</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="15.0" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>193</v>
+        <v>487</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="15.0" customHeight="1">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -19971,10 +20696,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -19985,10 +20710,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -19999,10 +20724,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -20013,10 +20738,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -20027,10 +20752,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -20041,10 +20766,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -20055,10 +20780,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -20069,10 +20794,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -20083,10 +20808,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -20097,10 +20822,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -20111,10 +20836,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -20125,10 +20850,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -20139,10 +20864,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -20153,10 +20878,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -20167,10 +20892,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -20181,10 +20906,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -20195,10 +20920,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -20209,10 +20934,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -20223,10 +20948,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -20237,10 +20962,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -20251,10 +20976,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -20265,10 +20990,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -20279,10 +21004,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -20293,10 +21018,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -20307,10 +21032,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -20321,10 +21046,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -20335,10 +21060,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -20349,10 +21074,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -20363,10 +21088,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -20377,10 +21102,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -20391,10 +21116,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -20405,10 +21130,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -20419,10 +21144,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -20433,10 +21158,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -20447,10 +21172,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -20461,10 +21186,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -20475,10 +21200,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -20489,10 +21214,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -20503,10 +21228,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>543</v>
+        <v>567</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>568</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -20517,10 +21242,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -20531,10 +21256,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -20545,10 +21270,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -20559,10 +21284,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -20573,10 +21298,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -20587,10 +21312,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -20601,10 +21326,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -20615,10 +21340,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -20629,10 +21354,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -20643,10 +21368,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -20657,10 +21382,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -20670,11 +21395,11 @@
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>566</v>
+      <c r="B51" s="21" t="s">
+        <v>591</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -20685,10 +21410,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -20699,10 +21424,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -20713,10 +21438,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>573</v>
+        <v>597</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>598</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -20727,10 +21452,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>575</v>
+        <v>599</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>600</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -20741,20 +21466,28 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>577</v>
+        <v>601</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="1"/>
@@ -20802,10 +21535,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -20816,10 +21549,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -20830,10 +21563,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -20844,10 +21577,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -20858,10 +21591,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -20872,10 +21605,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -20886,10 +21619,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -20900,10 +21633,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -20914,10 +21647,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -20928,10 +21661,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -20942,10 +21675,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -20956,10 +21689,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -20970,10 +21703,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -20984,10 +21717,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -20998,10 +21731,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -21012,10 +21745,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21026,10 +21759,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -21040,10 +21773,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -21054,10 +21787,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -21068,10 +21801,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -21082,10 +21815,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -21096,10 +21829,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21110,10 +21843,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21124,10 +21857,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -21138,10 +21871,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -21152,10 +21885,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -21166,10 +21899,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -21180,10 +21913,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -21194,10 +21927,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -21208,10 +21941,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -21222,10 +21955,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -21236,10 +21969,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -21250,10 +21983,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -21264,10 +21997,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -21278,10 +22011,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -21292,10 +22025,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -21306,10 +22039,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -21320,10 +22053,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -21334,10 +22067,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -21348,10 +22081,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -21362,10 +22095,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -21376,10 +22109,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -21390,10 +22123,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -21404,10 +22137,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -21418,10 +22151,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -21432,10 +22165,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -21446,10 +22179,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -21460,10 +22193,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -21474,10 +22207,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -21488,10 +22221,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -21502,10 +22235,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -21516,10 +22249,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -21530,10 +22263,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -21544,10 +22277,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -21558,32 +22291,48 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" ht="15.0" customHeight="1">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+        <v>714</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" ht="15.0" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>718</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
@@ -21640,6 +22389,18 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
+    </row>
+    <row r="68" ht="15.0" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" ht="15.0" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21666,10 +22427,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>688</v>
+        <v>719</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -21680,10 +22441,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -21694,10 +22455,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -21708,10 +22469,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -21722,10 +22483,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -21736,10 +22497,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>699</v>
+        <v>730</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -21750,10 +22511,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -21764,10 +22525,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -21778,10 +22539,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>704</v>
+        <v>735</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
+        <v>736</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -21792,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>706</v>
+        <v>737</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>707</v>
+        <v>738</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -21806,10 +22567,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>708</v>
+        <v>739</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>709</v>
+        <v>740</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -21820,10 +22581,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>710</v>
+        <v>741</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -21834,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>712</v>
+        <v>743</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -21848,10 +22609,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -21862,10 +22623,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>716</v>
+        <v>747</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>748</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -21876,10 +22637,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21890,10 +22651,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -21904,10 +22665,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -21918,10 +22679,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -21932,10 +22693,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>727</v>
+        <v>758</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -21946,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -21960,10 +22721,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21974,10 +22735,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>732</v>
+        <v>763</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21988,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>734</v>
+        <v>765</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -22002,10 +22763,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>736</v>
+        <v>767</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>737</v>
+        <v>768</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -22016,10 +22777,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>739</v>
+        <v>770</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -22030,10 +22791,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>740</v>
+        <v>771</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22044,10 +22805,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>742</v>
+        <v>773</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -22058,10 +22819,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22072,10 +22833,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -22086,10 +22847,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -22100,10 +22861,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>751</v>
+        <v>782</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -22114,10 +22875,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -22128,10 +22889,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22142,10 +22903,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>756</v>
+        <v>787</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>757</v>
+        <v>788</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22156,10 +22917,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>758</v>
+        <v>789</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>759</v>
+        <v>790</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22170,10 +22931,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>760</v>
+        <v>791</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>761</v>
+        <v>792</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22184,10 +22945,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22198,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>764</v>
+        <v>795</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>765</v>
+        <v>796</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22212,10 +22973,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>766</v>
+        <v>797</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22226,10 +22987,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -22240,10 +23001,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>770</v>
+        <v>801</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -22254,10 +23015,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>772</v>
+        <v>803</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -22268,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>775</v>
+        <v>806</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -22282,10 +23043,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -22514,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -22528,10 +23289,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -22542,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -22556,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -22570,10 +23331,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -22584,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -22598,10 +23359,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22612,10 +23373,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -22626,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22640,10 +23401,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -22654,10 +23415,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -22668,10 +23429,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -22682,10 +23443,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22696,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22710,10 +23471,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -22724,10 +23485,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22738,10 +23499,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -22752,10 +23513,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22766,10 +23527,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22780,10 +23541,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22794,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22808,10 +23569,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -22822,10 +23583,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -22836,10 +23597,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -22850,10 +23611,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -22864,10 +23625,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -22878,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22892,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -22906,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22920,10 +23681,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1247">
   <si>
     <t>Yes</t>
   </si>
@@ -2837,6 +2837,12 @@
     <t>@Test [5 attributs pls]</t>
   </si>
   <si>
+    <t>enable , description , depends on , priority, data provider</t>
+  </si>
+  <si>
+    <t>what is your reporting framework / ReportNG</t>
+  </si>
+  <si>
     <t>i have used ReportNG framework for my reporting
 few simple steps are there to configure--
 Add the ReportNG dependency  via maven
@@ -2844,9 +2850,6 @@
 Initialize ReportNG in your Selenium test case 
 Log test events to ReportNG. 
 You can use the ExtentTest class to log test events such as start, pass, fail, and skip.</t>
-  </si>
-  <si>
-    <t>what is your reporting framework / ReportNG</t>
   </si>
   <si>
     <t>how to ignore a test case to run</t>
@@ -9671,10 +9674,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9685,10 +9688,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9699,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9713,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9727,10 +9730,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9741,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9755,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9769,10 +9772,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9863,10 +9866,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9877,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9891,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9905,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9919,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9933,10 +9936,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9947,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9961,10 +9964,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9975,10 +9978,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10010,10 +10013,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10024,10 +10027,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10038,10 +10041,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10052,10 +10055,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10066,10 +10069,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10080,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10094,10 +10097,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10108,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10122,10 +10125,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10136,10 +10139,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10150,10 +10153,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10164,10 +10167,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10178,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10192,10 +10195,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10206,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10220,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10234,10 +10237,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10248,10 +10251,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10262,10 +10265,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10276,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10290,10 +10293,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10304,10 +10307,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10318,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10332,10 +10335,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10346,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -10360,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -10374,10 +10377,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -10388,10 +10391,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -10402,10 +10405,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -10416,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -10430,10 +10433,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -10444,10 +10447,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -10480,10 +10483,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10494,10 +10497,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10508,10 +10511,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10522,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10536,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10550,10 +10553,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10564,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10578,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10592,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10606,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10620,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10634,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10648,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10662,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10676,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10690,10 +10693,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10704,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10718,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10732,10 +10735,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10746,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10760,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10774,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10788,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10802,10 +10805,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10835,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10849,10 +10852,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10883,10 +10886,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10894,13 +10897,13 @@
     </row>
     <row r="2" ht="23.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10911,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10925,10 +10928,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10939,10 +10942,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10953,10 +10956,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10967,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10981,10 +10984,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10995,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -11009,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -11026,7 +11029,7 @@
         <v>430</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -11037,10 +11040,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -11051,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -11065,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -11079,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -11093,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -11107,10 +11110,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -11121,10 +11124,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -11135,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -11149,10 +11152,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -11163,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -11177,10 +11180,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -11191,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -11205,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -11219,10 +11222,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -11233,10 +11236,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -11247,10 +11250,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -11261,10 +11264,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -11275,10 +11278,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -11289,10 +11292,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -11303,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -11317,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -11334,7 +11337,7 @@
         <v>331</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -11345,10 +11348,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -11359,10 +11362,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -11373,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -11387,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -11401,10 +11404,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -11415,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -11429,10 +11432,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -11443,10 +11446,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -11457,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -11471,10 +11474,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -11485,10 +11488,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -11499,10 +11502,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -11513,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -11527,10 +11530,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -11541,10 +11544,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -11555,10 +11558,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -11569,10 +11572,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -11583,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -11597,10 +11600,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -11611,10 +11614,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -11625,10 +11628,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -11639,10 +11642,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -11653,10 +11656,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -11667,10 +11670,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -11681,10 +11684,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -11695,10 +11698,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -11709,10 +11712,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -11723,10 +11726,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -11737,10 +11740,10 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -11751,10 +11754,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -11765,10 +11768,10 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -11779,10 +11782,10 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
@@ -11793,10 +11796,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -11807,10 +11810,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -11821,10 +11824,10 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
@@ -11835,10 +11838,10 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -11849,10 +11852,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -11863,10 +11866,10 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
@@ -11877,10 +11880,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -11891,10 +11894,10 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -11905,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
@@ -11919,10 +11922,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -11933,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -11947,10 +11950,10 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
@@ -11961,10 +11964,10 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
@@ -11975,10 +11978,10 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
@@ -11989,10 +11992,10 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>3</v>
@@ -12003,10 +12006,10 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
@@ -12017,10 +12020,10 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>3</v>
@@ -12031,10 +12034,10 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -12045,10 +12048,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
@@ -12059,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
@@ -12096,10 +12099,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12110,10 +12113,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12124,10 +12127,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -12138,10 +12141,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -12152,10 +12155,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -12166,10 +12169,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -12180,10 +12183,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -12194,10 +12197,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -12208,10 +12211,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -12222,10 +12225,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -12236,10 +12239,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -12250,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -12264,10 +12267,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -12278,10 +12281,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -12292,10 +12295,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -12306,10 +12309,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -12320,10 +12323,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -12334,10 +12337,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -12348,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -12362,10 +12365,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -12376,10 +12379,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -12390,10 +12393,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -12404,10 +12407,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -12418,10 +12421,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -12432,10 +12435,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -12446,10 +12449,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -12457,13 +12460,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -12474,10 +12477,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -12488,10 +12491,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -12502,10 +12505,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -12516,10 +12519,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -12530,10 +12533,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -12544,10 +12547,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -12578,10 +12581,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>3</v>
@@ -12610,10 +12613,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12624,10 +12627,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -12638,10 +12641,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -20597,7 +20600,7 @@
       <c r="B11" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>481</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -20611,6 +20614,9 @@
       <c r="B12" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
@@ -20620,10 +20626,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -20634,10 +20640,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -20648,10 +20654,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -20662,10 +20668,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -20696,10 +20702,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -20710,10 +20716,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -20724,10 +20730,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -20738,10 +20744,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -20752,10 +20758,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -20766,10 +20772,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -20780,10 +20786,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -20794,10 +20800,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -20808,10 +20814,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -20822,10 +20828,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -20836,10 +20842,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -20850,10 +20856,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -20864,10 +20870,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -20878,10 +20884,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -20892,10 +20898,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -20906,10 +20912,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -20920,10 +20926,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -20934,10 +20940,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -20948,10 +20954,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -20962,10 +20968,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -20976,10 +20982,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -20990,10 +20996,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21004,10 +21010,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21018,10 +21024,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -21032,10 +21038,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -21046,10 +21052,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -21060,10 +21066,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -21074,10 +21080,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -21088,10 +21094,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -21102,10 +21108,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -21116,10 +21122,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -21130,10 +21136,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -21144,10 +21150,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -21158,10 +21164,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -21172,10 +21178,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -21186,10 +21192,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -21200,10 +21206,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -21214,10 +21220,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -21228,10 +21234,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -21242,10 +21248,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -21256,10 +21262,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -21270,10 +21276,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -21284,10 +21290,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -21298,10 +21304,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -21312,10 +21318,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -21326,10 +21332,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -21340,10 +21346,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -21354,10 +21360,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -21368,10 +21374,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -21382,10 +21388,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -21396,10 +21402,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -21410,10 +21416,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -21424,10 +21430,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -21438,10 +21444,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -21452,10 +21458,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -21466,10 +21472,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -21480,10 +21486,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -21535,10 +21541,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -21549,10 +21555,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -21563,10 +21569,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -21577,10 +21583,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -21591,10 +21597,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -21605,10 +21611,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -21619,10 +21625,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -21636,7 +21642,7 @@
         <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -21647,10 +21653,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -21661,10 +21667,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -21675,10 +21681,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -21689,10 +21695,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -21703,10 +21709,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -21717,10 +21723,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -21731,10 +21737,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -21745,10 +21751,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21759,10 +21765,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -21773,10 +21779,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -21787,10 +21793,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -21801,10 +21807,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -21815,10 +21821,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -21829,10 +21835,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21843,10 +21849,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21857,10 +21863,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -21871,10 +21877,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -21885,10 +21891,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -21899,10 +21905,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -21913,10 +21919,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -21927,10 +21933,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -21941,10 +21947,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -21955,10 +21961,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -21969,10 +21975,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -21983,10 +21989,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -21997,10 +22003,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22011,10 +22017,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22025,10 +22031,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22039,10 +22045,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22053,10 +22059,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22067,10 +22073,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22081,10 +22087,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22095,10 +22101,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -22109,10 +22115,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -22123,10 +22129,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -22137,10 +22143,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -22151,10 +22157,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -22165,10 +22171,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -22179,10 +22185,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -22193,10 +22199,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -22207,10 +22213,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -22221,10 +22227,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -22235,10 +22241,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -22249,10 +22255,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -22263,10 +22269,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -22277,10 +22283,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -22291,10 +22297,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -22305,10 +22311,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -22319,10 +22325,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -22331,7 +22337,7 @@
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -22427,10 +22433,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -22441,10 +22447,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -22455,10 +22461,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -22469,10 +22475,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -22483,10 +22489,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -22497,10 +22503,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -22511,10 +22517,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22525,10 +22531,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -22539,10 +22545,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22553,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -22567,10 +22573,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -22581,10 +22587,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -22595,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22609,10 +22615,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22623,10 +22629,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -22637,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22651,10 +22657,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -22665,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22679,10 +22685,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22693,10 +22699,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22707,10 +22713,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22721,10 +22727,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -22735,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -22749,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -22763,10 +22769,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -22777,10 +22783,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -22791,10 +22797,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22805,10 +22811,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -22819,10 +22825,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22833,10 +22839,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -22847,10 +22853,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -22861,10 +22867,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -22875,10 +22881,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -22889,10 +22895,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22903,10 +22909,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22917,10 +22923,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22931,10 +22937,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22945,10 +22951,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22959,10 +22965,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22973,10 +22979,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22987,10 +22993,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -23001,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -23015,10 +23021,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -23029,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -23043,10 +23049,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -23275,10 +23281,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -23289,10 +23295,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23303,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -23317,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -23331,10 +23337,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -23345,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -23359,10 +23365,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -23373,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -23387,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -23401,10 +23407,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -23415,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -23429,10 +23435,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -23443,10 +23449,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -23457,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -23471,10 +23477,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -23485,10 +23491,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -23499,10 +23505,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -23513,10 +23519,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -23527,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -23541,10 +23547,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -23555,10 +23561,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -23569,10 +23575,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -23583,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -23597,10 +23603,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -23611,10 +23617,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -23625,10 +23631,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -23639,10 +23645,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -23653,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -23667,10 +23673,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -23681,10 +23687,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>

--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -9,15 +9,15 @@
     <sheet state="visible" name="sel" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="testng" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="API" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="prog" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="aws" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="unix" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="BDD" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="projects" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="sql" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="git" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="ci-cd" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="cy" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="cy" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="prog" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="aws" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="unix" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="BDD" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="projects" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="sql" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="git" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="ci-cd" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="int-exp" sheetId="16" r:id="rId19"/>
     <sheet state="visible" name="appium" sheetId="17" r:id="rId20"/>
     <sheet state="visible" name="rest-all" sheetId="18" r:id="rId21"/>
@@ -26,7 +26,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="rWalvdW0u7Y07s+L/c+A2Sk4Dm2WTZ8o2jbpBAhuzM8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="jDNoUqi7l+qBb9/GflEPAFJqNHTSaG0Oia8fiEAK2kY="/>
     </ext>
   </extLst>
 </workbook>
@@ -3527,6 +3527,858 @@
 Double totalPrice = response
     .jsonPath()
     .getDouble("$.items.sum({@.price})");</t>
+  </si>
+  <si>
+    <t>Cypress version</t>
+  </si>
+  <si>
+    <t>Latest : 13.3.1
+i was using still 12.14.0, have to upgrade it</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Cypress roles and responsibilites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop and maintain Cypress tests:
+Execute Cypress tests: 
+Debug and fix Cypress tests: 
+Improve the Cypress testing process: 
+Identify bugs via Cypress tests: </t>
+  </si>
+  <si>
+    <t>What is the Cypress</t>
+  </si>
+  <si>
+    <t>Cypress is a javascript-based front-end testing tool written in node js. 
+It is built on top of Mocha and Chai.
+Cypress runs tests within the browser
+Cypress also automatically waits for the DOM to load before running your tests
+Cypress is also very fast.
+Cypress is very reliable. It is written in JavaScript, so it is compatible with all modern browsers.</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>Selenium operate by running OUT SIDE of the browser and executing remote commands across the network. 
+But the Cypress engine DIRECTLY operates INSIDE the browser. like ,  it is the browser that is executing your test code.
+Because of Cypress engine INSIDE browser - we can modify the browser behaviour at run time , both FrontEnd and Network requests very easyly.
+In selenium - we used have  chrome driver exe file to control Chrome browser, Firefox driver exe file to control Firefox browser , etc.
+In cypress - all the commands executed with in the BROWSER in CYPRESS , no Driver exe files needed.</t>
+  </si>
+  <si>
+    <t>cypress vs selenium</t>
+  </si>
+  <si>
+    <t>Cypress is a JavaScript-based testing tool that runs directly in the browser, while Selenium is a client-server architecture  
+Cypress is   simpler, easier way to perform complex user interactions and behaviors. Selenium's API can be more complex and require more advanced programming skills.
+Cypress uses various debugging tools, including real-time reloading, automatic retries, and snapshots. These features make it easy to identify and fix issues in your tests. Selenium provides fewer debugging tools
+Selenium provides built-in support for cross browser testing, making it easy to test your application across different browsers and platforms. Cypress is currently only officially supported on Chrome and Firefox and few others</t>
+  </si>
+  <si>
+    <t>cy arch for kid</t>
+  </si>
+  <si>
+    <t>Imagine that you are a restaurant manager and you want to test the quality of your restaurant's service. You could hire a mystery shopper to come in and eat at your restaurant, and then report back to you on their experience.
+The mystery shopper would be like the Cypress Runner. They would go through the same steps that a customer would go through, and they would report back to you on any problems that they encountered.
+The restaurant itself would be like the Cypress Application. It is the environment in which the tests are executed.
+The menu would be like the Cypress Tests. It is a list of steps that the mystery shopper will follow.
+The restaurant's staff would be like the Cypress Plugins. They are responsible for providing the functionality that the mystery shopper needs to complete the tests.
+In this analogy, the mystery shopper would open a new browser window for each test. They would then inject the Cypress Runner into the browser window. The Cypress Runner would then execute the tests and report the results to the restaurant manager.
+I hope this explanation is helpful. Please let me know if you have any other questions.</t>
+  </si>
+  <si>
+    <t>advantages</t>
+  </si>
+  <si>
+    <t>1. fast, consistent, and reliable.   test execution         compared to other automation tools
+2. avoids Flaky tests -    Cypress automatically waits for commands and assertions before moving on.
+3. with intercetption of Network calls  - we can test tests in depth  
+4. detailed debugging feature  - It takes snapshots as your tests run. We can hover over each command  to accurately see what happened at each step.
+5. it records  videos of the execution  : we can see them on need basis
+6. easy setup
+7. supports multiple browsers - chrome, firefox, edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disadvantages </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it does not have the vast community that Selenium does.
+no support for  languages such as C# and Java.  
+Because it runs inside the browser, there is no support for multiple browser tabs / browsers at a time 
+Iframes are not supported.
+Supports only Web applications - It doesn't support mobile apps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">components </t>
+  </si>
+  <si>
+    <t>Test Runner: It runs tests in a web browser cypress server that allows us to see commands as they execute while also viewing the application under test.
+Cypress  CLI: The Cypress Command Line Interface (CLI) is a command-line tool that allows you to run your tests from the terminal 
+Cypress Dashboard is a service that provides you access to recorded tests - typically when running Cypress tests from CICD</t>
+  </si>
+  <si>
+    <t>supported browsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome, Chromium, Edge, Firefox, Electron
+</t>
+  </si>
+  <si>
+    <t>Cypress only supports CSS Selector. 
+However, we can use the Cypress-Xpath plugin to work with Xpath</t>
+  </si>
+  <si>
+    <t>selectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cy.get(): To select one or more DOM elements.
+cy.contains(): To select elements based on their text content.
+cy.find() : select an element
+cy.next() To select the next sibling element of a given element.
+cy.prev()To select the previouse sibling element of a given element.
+prevAll() can be used to get all previous siblings of each DOM element in a set of matched DOM elements.
+cy.eq()
+ cy.parent()`: To select the parent element of a given element.
+cy.children(): To select the child elements of a given element. </t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>cy.get(): This command is used to get a reference to a DOM element(s) so that it can be interacted with further.
+cy.click(): This command simulates a click event on a DOM element.
+cy.type(): This command simulates typing text into a form field or other input element on the page.
+cy.clear(): This command is used to clear the contents of an input field or text area.
+cy.select(): This command is used to select an option from a dropdown menu.
+cy.visit(): cy.visit() is used to navigate to the specific website
+Ex: cy.visit(‘http://www.google.com’);
+cy.log(): cy.log is used for display cypress console logs during execution
+Ex: cy.log(‘test 123’);
+cy.get(): cy.get is used for getting dom element in cypress, once we get dom element we can perform action on that like click, type etc.
+Example: let myElement = cy.get(‘#username’)
+cy.url(): cy.url() is used to Get the current URL of the page that is currently active.</t>
+  </si>
+  <si>
+    <t>filter the DOM element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can use the cy.get() command to select DOM elements, and several filtering methods are available with which to narrow down your selection based on specific criteria. 
+These include .filter(), .eq(), .first(), .last(), and .contains().
+</t>
+  </si>
+  <si>
+    <t>trigger / mouse</t>
+  </si>
+  <si>
+    <t>The trigger() function in Cypress programmatically simulates user interactions with the page, such as a click, mouseover, or key-down event. 
+cy.get('button').trigger('click');</t>
+  </si>
+  <si>
+    <t>mouseover</t>
+  </si>
+  <si>
+    <t>In Cypress, you can simulate a mouseover event on an element by using the .trigger() method. 
+This method accepts a string argument representing the name of the event you want to trigger, such as 'mouseover'.
+To use mouseover in Cypress, 
+select the element you want to trigger the event using the cy.get() command. 
+Then chain the .trigger() method to simulate the event.</t>
+  </si>
+  <si>
+    <t>dragNdrop / drag and drop</t>
+  </si>
+  <si>
+    <t>trigger () method can help us doing drang and drop functionality..
+cy.get('source lcoator')
+                                                    .trigger('mousedown', { button: 0 })
+                                                    .trigger('mousemove', { clientX: 100, clientY: 100 })
+                                                    .trigger('mouseup')</t>
+  </si>
+  <si>
+    <t>with BDD</t>
+  </si>
+  <si>
+    <t>Cypress does not offer official BDD built-in support, 
+however, the NPM Cypress-Cucumber-Preprocessor plugin allows you to write your tests in BDD Cucumber Syntax. 
+This plugin automatically translates Gherkin syntax into Cypress.</t>
+  </si>
+  <si>
+    <t>sample script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can create a test suit in Cypress using describe() block or context() block. 
+The describe() block acts as a suite, and inside that block, each test can be written as a single it() block.
+describe('Test Suite', () =&gt; {
+    it('navigates to google.com and searches for some text', () =&gt; {
+  // Visit the Google home page
+  cy.visit('https://www.google.com');
+  // Type the search text into the search bar
+  cy.get('#searchbox input[type="text"]').type('some text');
+  // Click the search button
+  cy.get('.jslphf-SwQIc').click();
+  // Verify that the search results page contains the search text
+  cy.get('.srg .g').contains('some text');
+});
+})
+</t>
+  </si>
+  <si>
+    <t>verify page title</t>
+  </si>
+  <si>
+    <t>There are built-in assertions available in Cypress. 
+By using the “should” assertion we can verify the title of a webpage in Cypress.
+cy.title().should('eq','My Site Title')</t>
+  </si>
+  <si>
+    <t>hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before() ,      beforeEach(), 
+after() ,      afterEach().
+these are set preconditions that we want to execute before a set of tests or before each test. 
+For example, if we want to read test data from a fixture file or we want to perform some configuration tasks, 
+or cleanup tasks then we can utilize Cypress hooks concepts. 
+before() - Before all tests in a suite,,      beforeEach() - before each IT block, 
+after() - after suite,      afterEach()- after each IT block, </t>
+  </si>
+  <si>
+    <t>Configuration file</t>
+  </si>
+  <si>
+    <t>We can read the configuration values from Cypress using 
+Cypress.config();
+For example, if we have defined the env in the config.json  and the content is 
+{"env": stage}
+To read the config info :  we have to write cypress code like.....
+let timeout = Cypress.config('env')</t>
+  </si>
+  <si>
+    <t>test data / FIXTURE</t>
+  </si>
+  <si>
+    <t>The FIXTURE folder keeps all the necessary test data in the Cypress project.  
+This directory can store multiple JSON files / excel / csv  / any kind of files   
+All fixture data has to be declared within the before hook block.
+cy.fixture(path of test data)
+cy.fixture('fileName.json').then(function (testdata) {
+            this.testdata = testdata
+        })</t>
+  </si>
+  <si>
+    <t>check button is visible or not</t>
+  </si>
+  <si>
+    <t>To verify whether the button is visible or not on the webpage use inbuilt Cypress assertion.
+cy.get('button#form-submit').should('be.visible')</t>
+  </si>
+  <si>
+    <t>wait for an element</t>
+  </si>
+  <si>
+    <t>You can use the Cypress commands cy.wait() and cy.get() to wait for an element to be visible.
+cy.get('#my-element').should('be.visible');</t>
+  </si>
+  <si>
+    <t>assertions</t>
+  </si>
+  <si>
+    <t>Implicit Assertions: These are inbuilt assertions. We can have positive as well as negative implicit assertions. 
+&gt;&gt;&gt;&gt;.    should()     or   and()        type assertions.
+cy.get('lcoator').should('have.length', 3)
+cy.get('locator').should('not.have.length', 2)
+Explicit Assertions: Explicit assertions are used to perform some custom logic before applying assertion
+&gt;&gt; expect() assertion
+assert.isObject(employee, 'value is object')</t>
+  </si>
+  <si>
+    <t>assertions2</t>
+  </si>
+  <si>
+    <t>Chai BDD Assertions: not, include, equal etc.
+Chai TDD Assertions: .isOK(), .isTrue() etc.
+Chai JQuery Assertions: visible, hidden, selected etc.
+Sinon-Chai Assertions: called, callCount etc.</t>
+  </si>
+  <si>
+    <t>API testing in Cypress</t>
+  </si>
+  <si>
+    <t>To perform API testing in Cypress use cy. request(), we provide method type like GET / POST , then we provide end point and we provide query parameters also..
+then we get response object , on top of it we can apply expect() kind of assertions for status code / response content verification
+describe('API Testing in cypress', function () {
+    it('Hit Get Request validate its response status code and body', () =&gt; {
+        cy.request({
+            method: 'GET',
+            url: 'https://randomuser.me/api/',
+            qs: 'results=1'
+        }).then((response) =&gt; {
+            expect(response.status).to.eq(200)
+            expect(response.body).to.have.property('info')
+         })
+    })
+})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute tests in a particular order </t>
+  </si>
+  <si>
+    <t>To execute Cypress tests, put all the file names in the desired order in the Cypress.JSON file under the test files property section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reusability </t>
+  </si>
+  <si>
+    <t>By default Cypress includes the index.js and commands.js in the Support folder. 
+Index.js executes before every test file. 
+We can put reusable behaviour such as custom commands</t>
+  </si>
+  <si>
+    <t>browser navigation</t>
+  </si>
+  <si>
+    <t>cy.go('forward')
+   or
+cy.go(1)
+cy.go('back')
+   or
+cy.go(-1)</t>
+  </si>
+  <si>
+    <t>click a hidden element</t>
+  </si>
+  <si>
+    <t>cy.get('.checkbox').check({ force: true })</t>
+  </si>
+  <si>
+    <t>using selectFile() method we can upload file 
+cy.get('#upload')
+  .selectFile('cypress/images/logo.png')</t>
+  </si>
+  <si>
+    <t>scroll into view</t>
+  </si>
+  <si>
+    <t>Cypress has the scrollIntoView() command which scrolls an element into view.
+cy.get('locator').scrollIntoView()
+    or
+cy.get('locator').scrollIntoView({ offset: { top: 150, left: 0 } }) //scroll using offset</t>
+  </si>
+  <si>
+    <t>child element</t>
+  </si>
+  <si>
+    <t>Use the cy. children() command to select the child element of a given element.
+cy.get('parent lcoator').children('.class').click()</t>
+  </si>
+  <si>
+    <t>cy.visit()</t>
+  </si>
+  <si>
+    <t>The cy. visit() command is used to navigate to a specific URL or route in Cypress tests. 
+{
+    "baseUrl" : "https://www.programsbuzz.com/"
+}
+describe('Automating The Signin',()=&gt; {
+    it('visit the site ',()=&gt;{
+        cy.visit('/')
+})
+})</t>
+  </si>
+  <si>
+    <t>responsiveness / viewport</t>
+  </si>
+  <si>
+    <t>To check the application’s responsiveness we can use “cy. viewport()” command. It manages the orientation and dimension of the application.
+describe('Test to get window size', function() {
+    it('Get the window size', function() {
+        cy.viewport()
+        cy.viewport(320, 480)
+})
+})</t>
+  </si>
+  <si>
+    <t>capture screenshots</t>
+  </si>
+  <si>
+    <t>In Cypress, we don’t need to add any dependency or plugin to capture screenshots like we used to do in Selenium. 
+Cypress has the inbuilt capability to capture screenshots of the fail tests.
+cy.screenshot() // default file name 
+cy.screenshot('fileName);
+This command will take a screenshot of the entire browser window and save it to the screenshots directory in the Cypress project root.
+cy.get('#my-element').screenshot('fileName'); // specific element</t>
+  </si>
+  <si>
+    <t>cypress commands</t>
+  </si>
+  <si>
+    <t>we can write custom commands in commands.js file
+Cypress custom commands are functions that you can define to extend the functionality of Cypress. Custom commands can be used to perform common tasks, such as logging in to a website or interacting with a specific UI element.
+To create a custom command, you can use the Cypress.Commands.add() function. This function takes two arguments: the name of the command and the function that defines the command.
+Here is an example of how to create a custom command to log in to a website:
+Cypress.Commands.add('login', (username, password) =&gt; {
+  cy.get('#username').type(username);
+  cy.get('#password').type(password);
+  cy.get('#login-button').click();
+});</t>
+  </si>
+  <si>
+    <t>fixtures</t>
+  </si>
+  <si>
+    <t>Cypress fixtures are used to store and manage test data. They are typically JSON files, but they can also be other file types, such as CSV or YAML.
+To use a fixture in a Cypress test, you can use the cy.fixture() command. This command takes the name of the fixture file as an argument and returns the contents of the file.
+Here is an example of how to use a fixture in a Cypress test:
+const user = cy.fixture('user.json');
+cy.get('#username').type(user.username);
+cy.get('#password').type(user.password);
+cy.get('#login-button').click();</t>
+  </si>
+  <si>
+    <t>how do you store the value , so that can be used later stages</t>
+  </si>
+  <si>
+    <t>You can also use Cypress commands to store and retrieve values from local storage. To store a value in local storage, you can use the cy.setLocalStorage() command. This command takes two arguments: the key and the value to store.
+For example, the following code is equivalent to the previous example:
+cy.setLocalStorage('name', 'John Doe');
+To retrieve a value from local storage, you can use the cy.getLocalStorage() command. This command takes a single argument: the key of the value to retrieve.
+For example, the following code is equivalent to the previous example:
+const name = cy.getLocalStorage('name');</t>
+  </si>
+  <si>
+    <t>interception of calls and usage</t>
+  </si>
+  <si>
+    <t>Cypress intercept calls allow you to intercept and modify HTTP requests and responses before they are sent to the server or received from the server, respectively. This can be useful for a variety of purposes, such as:
+Stubbing out server responses: You can use Cypress intercept calls to stub out server responses, which can be useful for testing your application in isolation or for testing with different types of data.
+Modifying requests: You can use Cypress intercept calls to modify requests before they are sent to the server. This can be useful for adding headers, changing the request body, or delaying the request.
+Logging requests and responses: You can use Cypress intercept calls to log requests and responses, which can be useful for debugging your tests or for understanding how your application is communicating with the server.
+To intercept a call in Cypress, you can use the cy.intercept() command. This command takes two arguments: the URL of the request that you want to intercept and the handler function. The handler function is a function that is called when the request is intercepted. The handler function can be used to modify the request or response, or to log the request and response.
+Here is an example of how to intercept a call in Cypress:
+cy.intercept('GET', '/api/users').as('getUsers');
+// ...
+cy.wait('@getUsers').then((response) =&gt; {
+  // ...
+});</t>
+  </si>
+  <si>
+    <t>dubugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cy.pause() command, which pauses execution at a specific point and allows you to use the browser's DevTools to debug your code.
+Another way to debug tests is to use the 
+cy.debug() command. 
+This command logs the current state of your application's DOM </t>
+  </si>
+  <si>
+    <t>debugging - pause()</t>
+  </si>
+  <si>
+    <t>cy.pause(); 
+will pause the execution and we can interact with network tab / application or anything while we are at puse</t>
+  </si>
+  <si>
+    <t>debugging - slowdown</t>
+  </si>
+  <si>
+    <t>1. intall dependency : npm install cypress-slow-down
+2. import this line : import { slowCypressDown } from 'cypress-slow-down'
+3. Make sure that you are calling the slowCypressDown() function before you start writing your Cypress tests. The function should be called outside of any describe() or it() blocks.
+4. set command delay to True in cypress.config.ts file 
+e2e: {
+    env: {
+      commandDelay: true,
+    },
+  },</t>
+  </si>
+  <si>
+    <t>debugging - RUNKEY</t>
+  </si>
+  <si>
+    <t>package.json , scripts :  "cy": "export CYPRESS_RUN_KEY=KRANTHI; cypress open",</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">debugging - </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>local.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>export CYPRESS_BASE_URL="https://www.cpln.dev.swacorp.com/planit/dashboard"
+export CYPRESS_FO_USER="tPlanitFO2"
+export CYPRESS_IF_USER="tPlanitIF1"
+export CYPRESS_ADMIN_USER="tPlanitFOIF3"
+export CYPRESS_APP_PASSWORD="pauoRD9H" 
+npm run cy --log-level debug</t>
+  </si>
+  <si>
+    <t>debugging - run</t>
+  </si>
+  <si>
+    <t>chmod 755 local.sh
+./local.sh</t>
+  </si>
+  <si>
+    <t>describe.only(</t>
+  </si>
+  <si>
+    <t>runs only one describe section</t>
+  </si>
+  <si>
+    <t>it.only(</t>
+  </si>
+  <si>
+    <t>runs only one it method</t>
+  </si>
+  <si>
+    <t>describe.skip(</t>
+  </si>
+  <si>
+    <t>except this describe block</t>
+  </si>
+  <si>
+    <t>it.skip(</t>
+  </si>
+  <si>
+    <t>except this it blocck</t>
+  </si>
+  <si>
+    <t>retry</t>
+  </si>
+  <si>
+    <t>To configure retries globally, add the following to your cypress.config.js file:
+module.exports = defineConfig({
+  e2e: {
+    retries: {
+      runMode: 2, // Number of retries for run mode (cypress run)
+      openMode: 1, // Number of retries for open mode (cypress open)
+    },
+per test / per suite
+it('my test', { retries: 2 }, () =&gt; {
+  // ...
+});
+describe('my suite', { retries: 2 }, () =&gt; {
+  // ...
+});</t>
+  </si>
+  <si>
+    <t>Cypress.Promise.all()</t>
+  </si>
+  <si>
+    <t>The Cypress.Promise.all() function takes an array of promises as input and returns a single promise that resolves when all of the input promises have resolved.
+const flightSchedules = ['AA123', 'BA456', 'DL789'];
+cy.Promise.all(flightSchedules.map(fs =&gt; cy.get('@overlap-table-rows').contains(fs))).then(() =&gt; {
+  // Assert that all of the flight schedules are present in the overlap table.
+});
+If any of the flight schedules are not present in the overlap table, then the Cypress.Promise.all() function will reject and the test will fail.</t>
+  </si>
+  <si>
+    <t>constants in cy</t>
+  </si>
+  <si>
+    <t>file name const.js
+export const INACTIVE = 'Inactive';
+export const ACTIVE = "Active";
+export const ACTIVATE = 'Activate';
+export const DEACTIVATE = 'Deactivate';
+in your test.js file 
+import * as fs from "../../support/helpers/flight-schedules/const";
+you can access const.ACTIVE where ever neeed in script</t>
+  </si>
+  <si>
+    <t>expalin framework</t>
+  </si>
+  <si>
+    <t>First folder structure is like :
+Fixture: A fixture is nothing but tet data files that can be used throughout the testing process. 
+e2e: e2e is the main folder where you'll keep your tests. All your test files will be here. You can write tests in .js files
+Plugins: It has its own index.js file. You can put your custom plugin code here.
+Support: The support folder contains two files: commands.js and index.js.Page objects: Page objects are reusable components that represent the different pages in your web application.
+Kind of page object modal implemented to create clear segragation between pages
+our test data resides in fixture folder and we read  data from test data  
+we have custom commands written in helper files 
+we have config which covers all the configs that talk about browser info and other details</t>
+  </si>
+  <si>
+    <t>headless</t>
+  </si>
+  <si>
+    <t>cypress run --headless --browser chrome</t>
+  </si>
+  <si>
+    <t>change the baseUrl</t>
+  </si>
+  <si>
+    <t>npx cypress run --config baseUrl="https://www.lambdatest.com/"</t>
+  </si>
+  <si>
+    <t>run one spec file</t>
+  </si>
+  <si>
+    <t>cypress run --spec cypress/integration/my-spec.js</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Cypress provides a range of built-in reporters that can be configured in the cypress.json configuration file or through the command line when running tests.
+ The most commonly used reporter is the default spec reporter, which displays results in a terminal in a spec-like format, making it easy to read and analyze.</t>
+  </si>
+  <si>
+    <t>logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We don’t need to add any plugin to perform logging in Cypress. Cypress provides the “cy.log()” command. This command prints the message on the console.
+</t>
+  </si>
+  <si>
+    <t>shadow DOM</t>
+  </si>
+  <si>
+    <t>cy.get('#locator').shadow().find('.nb-btn').click()</t>
+  </si>
+  <si>
+    <t>first and last child</t>
+  </si>
+  <si>
+    <t>cy.get('ul li').first()
+cy.get('ul li').last()</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The `cy.wait()` command can be used to pause a test for a specified amount of time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type / sendkeys </t>
+  </si>
+  <si>
+    <t>You can simulate keyboard input in Cypress by typing `cy.type()` command</t>
+  </si>
+  <si>
+    <t>changing dom content / javascript exe</t>
+  </si>
+  <si>
+    <t>Cypress doesn’t have JavascriptExecuter command, but cypress does this in a different way - 
+cy.window().then((win) =&gt;{
+win.eval("document.querySelector('input[name=\"q\"]').value='Some Text'")
+})
+--------
+cy.get('a[href*="lambdatest"]').invoke('removeAttr', 'target').click()</t>
+  </si>
+  <si>
+    <t>setup -high level</t>
+  </si>
+  <si>
+    <t>Install Cypress
+Create your spec file
+Use describe() block
+Use it() block for test script
+Open cypress
+Execute manually by selecting the test case or execute using the command line.</t>
+  </si>
+  <si>
+    <t>setup - detailed</t>
+  </si>
+  <si>
+    <t>Open a terminal or command prompt and navigate to the directory where your project is stored.
+Run the command `npm install cypress --save-dev` to ensure that Cypress is installed in your project.
+Once you have Cypress installed, run the command `npx cypress open` and the Cypress Test Runner will launch a new window containing its UI.
+From the Test Runner UI, you can select a test file from the integration folder to run by clicking on it. You can also run a specific test by clicking on its name.
+When you run tests, the results appear in the Test Runner UI. The UI allows you to debug failed tests, re-run tests on different environments, or run your tests again.</t>
+  </si>
+  <si>
+    <t>cypress folder structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress uses cypress.json file, if we want to specify any custom configuration which is located in the root of our project.
+The folder named "cypress " is located in the project root folder which is main folder for cypress automation framework.
+Fixture: A fixture is nothing but tet data files that can be used throughout the testing process. 
+e2e: e2e is the main folder where you'll keep your tests. All your test files will be here. You can write tests in .js files
+Plugins: It has its own index.js file. You can put your custom plugin code here.
+Support: The support folder contains two files: commands.js and index.js.
+</t>
+  </si>
+  <si>
+    <t>get browser details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cy.state('window').then((win) =&gt; {
+                                                const browserName = win.navigator.appName;
+                                                const browserVersion = win.navigator.appVersion;
+                                                const userAgent = win.navigator.userAgent;
+                                                // Use the browser properties as needed...
+                                                });
+                                                </t>
+  </si>
+  <si>
+    <t>location()</t>
+  </si>
+  <si>
+    <t>cy.location() command returns a location object for the current window.
+The location object contains information about the current URL, such as protocol, host, pathname and search parameters. 
+cy.location().then((loc) =&gt; {  console.log(loc.pathname)})</t>
+  </si>
+  <si>
+    <t>event after:run</t>
+  </si>
+  <si>
+    <t>The `after:run` event is a built-in event in Cypress that is triggered after all test cases in a test suite have finished running. 
+This event is useful for performing cleanup tasks or logging test results after all tests have completed. 
+similar events are like `before:each` and `before:each-sandbox`.</t>
+  </si>
+  <si>
+    <t>cy.task()</t>
+  </si>
+  <si>
+    <t>such as interacting with APIs or databases, executing command-line tools, or reading and writing files.</t>
+  </si>
+  <si>
+    <t>cy.exec()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running build scripts, interacting with command-line tools, or executing system commands.</t>
+  </si>
+  <si>
+    <t>read files</t>
+  </si>
+  <si>
+    <t>you can read files using the cy.readFile() and cy.fixture() functions. 
+The cy.readFile() function reads the contents of a file from the project's file system, 
+while the cy.fixture() function loads a fixture file</t>
+  </si>
+  <si>
+    <t>write file</t>
+  </si>
+  <si>
+    <t>cy.writeFile() function to save data in your project's file system. 
+This function takes two arguments: a string representing the path to the file you want to write, and a string containing the data you want to write to that file.</t>
+  </si>
+  <si>
+    <t>cy.clearCookies() , cy.clearLocalStorage()</t>
+  </si>
+  <si>
+    <t>The cy.clearCookies() and cy.clearLocalStorage() commands in Cypress allow you to clear the cookies and local storage data of the currently focused browser window. 
+The cy.clearCookies() command can be used to clear all cookies for a given domain, while the cy.clearLocalStorage() command can clear all data stored in local storage for a given domain.</t>
+  </si>
+  <si>
+    <t>timeouts</t>
+  </si>
+  <si>
+    <t>The defaultCommand Timeout - which is commang level wait
+Cypress's pageLoadTimeout - page loading time out
+The requestTimeout   -  the maximum time allowed for network requests to  complete</t>
+  </si>
+  <si>
+    <t>dblclick , double click , right click</t>
+  </si>
+  <si>
+    <t>cy.get('input[name="btnK"]').dblclick();
+cy.get('body').rightclick();</t>
+  </si>
+  <si>
+    <t>loop table content</t>
+  </si>
+  <si>
+    <t>first get the table element and then get all the td inside td and and apply loop to print
+cy.get('#tableID').get('tbody tr td').each(($ele)=&gt;{
+cy.log($ele.text());
+})</t>
+  </si>
+  <si>
+    <t>frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with the help of cy.frame() method or cy.iframe() method we can switch to frames and perform requried operations.
+to switch back to parent , cy.parent() does the job ...
+  // Switch to the frame
+  cy.frame('#my-frame') OR cy.iframe('my-frame')
+  // Interact with the elements inside the frame
+  cy.get('#my-input').type('Hello world!')
+  // Switch back to the main page
+  cy.parent()
+ </t>
+  </si>
+  <si>
+    <t>desktop based / non web / windows based</t>
+  </si>
+  <si>
+    <t>Unfortunately, desktop app automation is not possible with cypress or with any cypress plugin.
+Cypress code for interacting with elements runs inside the browser, 
+which makes it impossible to interact with anything outside the browser.</t>
+  </si>
+  <si>
+    <t>exception in cypress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeoutException:   is thrown when a Cypress command times out.
+ For example, if you use the cy.get() command to wait for an element to appear, but the element does not appear within the specified timeout period, Cypress will throw a TimeoutException.
+ElementNotFoundError:  is thrown when Cypress cannot find an element on the page.
+ For example, if you use the cy.get() command to wait for an element with the ID my-element,
+ but the element does not exist on the page, Cypress will throw an ElementNotFoundError.
+CypressError: This exception is thrown when Cypress encounters an unexpected error. 
+ </t>
+  </si>
+  <si>
+    <t>cypress.js usage</t>
+  </si>
+  <si>
+    <t>we can define
+view port size / browser dimenstions test
+reporitng information
+re-try config
+Request timeout
+page load time out
+global test data / fixture
+------------
+// Define a global override to set the default viewport size
+Cypress.config('viewportWidth', 1280);
+Cypress.config('viewportHeight', 720);
+// Define a global fixture
+Cypress.fixtures.add('users.json', [
+  {
+    name: 'John Doe',
+    email: 'john.doe@example.com',
+    password: 'password123',
+  },
+  {
+    name: 'Jane Doe',
+    email: 'jane.doe@example.com',
+    password: 'password456',
+  },
+]);
+// Define a global plugin
+Cypress.on('uncaught:exception', (error) =&gt; {
+  // Handle the uncaught exception
+});</t>
+  </si>
+  <si>
+    <t>which test you automated</t>
+  </si>
+  <si>
+    <t>1. first and fore most login to the system
+2. configure alerts, email alerts , message alerts
+2. navigate to the detection system
+3. pass the list of applicatons to search 
+4. make sure to trigger the crawinling system
+5. choose different types of crawiling cold / recent / hot
+6. verify the alerts were triggered when keywords matched
+7. making sure alerts identified were correct all the time
+8. scheduling scans
+9. remidiation configuration
+10. is remidiation is executed for the configuration
+etc</t>
   </si>
   <si>
     <t>Palindrome</t>
@@ -5402,9 +6254,6 @@
   <si>
     <t>deletes directory with contents init
 rmdir dir1</t>
-  </si>
-  <si>
-    <t>hooks</t>
   </si>
   <si>
     <t xml:space="preserve">Cucumber hooks - we can set order too
@@ -6223,855 +7072,6 @@
   </si>
   <si>
     <t>I have extensive experience integrating automated tests into CI/CD pipelines. I've used tools like Jenkins to trigger automated tests upon code commits, ensuring quick feedback to development teams. I've also integrated reporting and notifications to improve visibility and collaboration.</t>
-  </si>
-  <si>
-    <t>Cypress version</t>
-  </si>
-  <si>
-    <t>Latest : 13.3.1
-i was using still 12.14.0, have to upgrade it</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Cypress roles and responsibilites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Develop and maintain Cypress tests:
-Execute Cypress tests: 
-Debug and fix Cypress tests: 
-Improve the Cypress testing process: 
-Identify bugs via Cypress tests: </t>
-  </si>
-  <si>
-    <t>What is the Cypress</t>
-  </si>
-  <si>
-    <t>Cypress is a javascript-based front-end testing tool written in node js. 
-It is built on top of Mocha and Chai.
-Cypress runs tests within the browser
-Cypress also automatically waits for the DOM to load before running your tests
-Cypress is also very fast.
-Cypress is very reliable. It is written in JavaScript, so it is compatible with all modern browsers.</t>
-  </si>
-  <si>
-    <t>architecture</t>
-  </si>
-  <si>
-    <t>Selenium operate by running OUT SIDE of the browser and executing remote commands across the network. 
-But the Cypress engine DIRECTLY operates INSIDE the browser. like ,  it is the browser that is executing your test code.
-Because of Cypress engine INSIDE browser - we can modify the browser behaviour at run time , both FrontEnd and Network requests very easyly.
-In selenium - we used have  chrome driver exe file to control Chrome browser, Firefox driver exe file to control Firefox browser , etc.
-In cypress - all the commands executed with in the BROWSER in CYPRESS , no Driver exe files needed.</t>
-  </si>
-  <si>
-    <t>cypress vs selenium</t>
-  </si>
-  <si>
-    <t>Cypress is a JavaScript-based testing tool that runs directly in the browser, while Selenium is a client-server architecture  
-Cypress is   simpler, easier way to perform complex user interactions and behaviors. Selenium's API can be more complex and require more advanced programming skills.
-Cypress uses various debugging tools, including real-time reloading, automatic retries, and snapshots. These features make it easy to identify and fix issues in your tests. Selenium provides fewer debugging tools
-Selenium provides built-in support for cross browser testing, making it easy to test your application across different browsers and platforms. Cypress is currently only officially supported on Chrome and Firefox and few others</t>
-  </si>
-  <si>
-    <t>cy arch for kid</t>
-  </si>
-  <si>
-    <t>Imagine that you are a restaurant manager and you want to test the quality of your restaurant's service. You could hire a mystery shopper to come in and eat at your restaurant, and then report back to you on their experience.
-The mystery shopper would be like the Cypress Runner. They would go through the same steps that a customer would go through, and they would report back to you on any problems that they encountered.
-The restaurant itself would be like the Cypress Application. It is the environment in which the tests are executed.
-The menu would be like the Cypress Tests. It is a list of steps that the mystery shopper will follow.
-The restaurant's staff would be like the Cypress Plugins. They are responsible for providing the functionality that the mystery shopper needs to complete the tests.
-In this analogy, the mystery shopper would open a new browser window for each test. They would then inject the Cypress Runner into the browser window. The Cypress Runner would then execute the tests and report the results to the restaurant manager.
-I hope this explanation is helpful. Please let me know if you have any other questions.</t>
-  </si>
-  <si>
-    <t>advantages</t>
-  </si>
-  <si>
-    <t>1. fast, consistent, and reliable.   test execution         compared to other automation tools
-2. avoids Flaky tests -    Cypress automatically waits for commands and assertions before moving on.
-3. with intercetption of Network calls  - we can test tests in depth  
-4. detailed debugging feature  - It takes snapshots as your tests run. We can hover over each command  to accurately see what happened at each step.
-5. it records  videos of the execution  : we can see them on need basis
-6. easy setup
-7. supports multiple browsers - chrome, firefox, edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disadvantages </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it does not have the vast community that Selenium does.
-no support for  languages such as C# and Java.  
-Because it runs inside the browser, there is no support for multiple browser tabs / browsers at a time 
-Iframes are not supported.
-Supports only Web applications - It doesn't support mobile apps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">components </t>
-  </si>
-  <si>
-    <t>Test Runner: It runs tests in a web browser cypress server that allows us to see commands as they execute while also viewing the application under test.
-Cypress  CLI: The Cypress Command Line Interface (CLI) is a command-line tool that allows you to run your tests from the terminal 
-Cypress Dashboard is a service that provides you access to recorded tests - typically when running Cypress tests from CICD</t>
-  </si>
-  <si>
-    <t>supported browsers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome, Chromium, Edge, Firefox, Electron
-</t>
-  </si>
-  <si>
-    <t>Cypress only supports CSS Selector. 
-However, we can use the Cypress-Xpath plugin to work with Xpath</t>
-  </si>
-  <si>
-    <t>selectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cy.get(): To select one or more DOM elements.
-cy.contains(): To select elements based on their text content.
-cy.find() : select an element
-cy.next() To select the next sibling element of a given element.
-cy.prev()To select the previouse sibling element of a given element.
-prevAll() can be used to get all previous siblings of each DOM element in a set of matched DOM elements.
-cy.eq()
- cy.parent()`: To select the parent element of a given element.
-cy.children(): To select the child elements of a given element. </t>
-  </si>
-  <si>
-    <t>commands</t>
-  </si>
-  <si>
-    <t>cy.get(): This command is used to get a reference to a DOM element(s) so that it can be interacted with further.
-cy.click(): This command simulates a click event on a DOM element.
-cy.type(): This command simulates typing text into a form field or other input element on the page.
-cy.clear(): This command is used to clear the contents of an input field or text area.
-cy.select(): This command is used to select an option from a dropdown menu.
-cy.visit(): cy.visit() is used to navigate to the specific website
-Ex: cy.visit(‘http://www.google.com’);
-cy.log(): cy.log is used for display cypress console logs during execution
-Ex: cy.log(‘test 123’);
-cy.get(): cy.get is used for getting dom element in cypress, once we get dom element we can perform action on that like click, type etc.
-Example: let myElement = cy.get(‘#username’)
-cy.url(): cy.url() is used to Get the current URL of the page that is currently active.</t>
-  </si>
-  <si>
-    <t>filter the DOM element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you can use the cy.get() command to select DOM elements, and several filtering methods are available with which to narrow down your selection based on specific criteria. 
-These include .filter(), .eq(), .first(), .last(), and .contains().
-</t>
-  </si>
-  <si>
-    <t>trigger / mouse</t>
-  </si>
-  <si>
-    <t>The trigger() function in Cypress programmatically simulates user interactions with the page, such as a click, mouseover, or key-down event. 
-cy.get('button').trigger('click');</t>
-  </si>
-  <si>
-    <t>mouseover</t>
-  </si>
-  <si>
-    <t>In Cypress, you can simulate a mouseover event on an element by using the .trigger() method. 
-This method accepts a string argument representing the name of the event you want to trigger, such as 'mouseover'.
-To use mouseover in Cypress, 
-select the element you want to trigger the event using the cy.get() command. 
-Then chain the .trigger() method to simulate the event.</t>
-  </si>
-  <si>
-    <t>dragNdrop / drag and drop</t>
-  </si>
-  <si>
-    <t>trigger () method can help us doing drang and drop functionality..
-cy.get('source lcoator')
-                                                    .trigger('mousedown', { button: 0 })
-                                                    .trigger('mousemove', { clientX: 100, clientY: 100 })
-                                                    .trigger('mouseup')</t>
-  </si>
-  <si>
-    <t>with BDD</t>
-  </si>
-  <si>
-    <t>Cypress does not offer official BDD built-in support, 
-however, the NPM Cypress-Cucumber-Preprocessor plugin allows you to write your tests in BDD Cucumber Syntax. 
-This plugin automatically translates Gherkin syntax into Cypress.</t>
-  </si>
-  <si>
-    <t>sample script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We can create a test suit in Cypress using describe() block or context() block. 
-The describe() block acts as a suite, and inside that block, each test can be written as a single it() block.
-describe('Test Suite', () =&gt; {
-    it('navigates to google.com and searches for some text', () =&gt; {
-  // Visit the Google home page
-  cy.visit('https://www.google.com');
-  // Type the search text into the search bar
-  cy.get('#searchbox input[type="text"]').type('some text');
-  // Click the search button
-  cy.get('.jslphf-SwQIc').click();
-  // Verify that the search results page contains the search text
-  cy.get('.srg .g').contains('some text');
-});
-})
-</t>
-  </si>
-  <si>
-    <t>verify page title</t>
-  </si>
-  <si>
-    <t>There are built-in assertions available in Cypress. 
-By using the “should” assertion we can verify the title of a webpage in Cypress.
-cy.title().should('eq','My Site Title')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">before() ,      beforeEach(), 
-after() ,      afterEach().
-these are set preconditions that we want to execute before a set of tests or before each test. 
-For example, if we want to read test data from a fixture file or we want to perform some configuration tasks, 
-or cleanup tasks then we can utilize Cypress hooks concepts. 
-before() - Before all tests in a suite,,      beforeEach() - before each IT block, 
-after() - after suite,      afterEach()- after each IT block, </t>
-  </si>
-  <si>
-    <t>Configuration file</t>
-  </si>
-  <si>
-    <t>We can read the configuration values from Cypress using 
-Cypress.config();
-For example, if we have defined the env in the config.json  and the content is 
-{"env": stage}
-To read the config info :  we have to write cypress code like.....
-let timeout = Cypress.config('env')</t>
-  </si>
-  <si>
-    <t>test data / FIXTURE</t>
-  </si>
-  <si>
-    <t>The FIXTURE folder keeps all the necessary test data in the Cypress project.  
-This directory can store multiple JSON files / excel / csv  / any kind of files   
-All fixture data has to be declared within the before hook block.
-cy.fixture(path of test data)
-cy.fixture('fileName.json').then(function (testdata) {
-            this.testdata = testdata
-        })</t>
-  </si>
-  <si>
-    <t>check button is visible or not</t>
-  </si>
-  <si>
-    <t>To verify whether the button is visible or not on the webpage use inbuilt Cypress assertion.
-cy.get('button#form-submit').should('be.visible')</t>
-  </si>
-  <si>
-    <t>wait for an element</t>
-  </si>
-  <si>
-    <t>You can use the Cypress commands cy.wait() and cy.get() to wait for an element to be visible.
-cy.get('#my-element').should('be.visible');</t>
-  </si>
-  <si>
-    <t>assertions</t>
-  </si>
-  <si>
-    <t>Implicit Assertions: These are inbuilt assertions. We can have positive as well as negative implicit assertions. 
-&gt;&gt;&gt;&gt;.    should()     or   and()        type assertions.
-cy.get('lcoator').should('have.length', 3)
-cy.get('locator').should('not.have.length', 2)
-Explicit Assertions: Explicit assertions are used to perform some custom logic before applying assertion
-&gt;&gt; expect() assertion
-assert.isObject(employee, 'value is object')</t>
-  </si>
-  <si>
-    <t>assertions2</t>
-  </si>
-  <si>
-    <t>Chai BDD Assertions: not, include, equal etc.
-Chai TDD Assertions: .isOK(), .isTrue() etc.
-Chai JQuery Assertions: visible, hidden, selected etc.
-Sinon-Chai Assertions: called, callCount etc.</t>
-  </si>
-  <si>
-    <t>API testing in Cypress</t>
-  </si>
-  <si>
-    <t>To perform API testing in Cypress use cy. request(), we provide method type like GET / POST , then we provide end point and we provide query parameters also..
-then we get response object , on top of it we can apply expect() kind of assertions for status code / response content verification
-describe('API Testing in cypress', function () {
-    it('Hit Get Request validate its response status code and body', () =&gt; {
-        cy.request({
-            method: 'GET',
-            url: 'https://randomuser.me/api/',
-            qs: 'results=1'
-        }).then((response) =&gt; {
-            expect(response.status).to.eq(200)
-            expect(response.body).to.have.property('info')
-         })
-    })
-})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">execute tests in a particular order </t>
-  </si>
-  <si>
-    <t>To execute Cypress tests, put all the file names in the desired order in the Cypress.JSON file under the test files property section.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reusability </t>
-  </si>
-  <si>
-    <t>By default Cypress includes the index.js and commands.js in the Support folder. 
-Index.js executes before every test file. 
-We can put reusable behaviour such as custom commands</t>
-  </si>
-  <si>
-    <t>browser navigation</t>
-  </si>
-  <si>
-    <t>cy.go('forward')
-   or
-cy.go(1)
-cy.go('back')
-   or
-cy.go(-1)</t>
-  </si>
-  <si>
-    <t>click a hidden element</t>
-  </si>
-  <si>
-    <t>cy.get('.checkbox').check({ force: true })</t>
-  </si>
-  <si>
-    <t>using selectFile() method we can upload file 
-cy.get('#upload')
-  .selectFile('cypress/images/logo.png')</t>
-  </si>
-  <si>
-    <t>scroll into view</t>
-  </si>
-  <si>
-    <t>Cypress has the scrollIntoView() command which scrolls an element into view.
-cy.get('locator').scrollIntoView()
-    or
-cy.get('locator').scrollIntoView({ offset: { top: 150, left: 0 } }) //scroll using offset</t>
-  </si>
-  <si>
-    <t>child element</t>
-  </si>
-  <si>
-    <t>Use the cy. children() command to select the child element of a given element.
-cy.get('parent lcoator').children('.class').click()</t>
-  </si>
-  <si>
-    <t>cy.visit()</t>
-  </si>
-  <si>
-    <t>The cy. visit() command is used to navigate to a specific URL or route in Cypress tests. 
-{
-    "baseUrl" : "https://www.programsbuzz.com/"
-}
-describe('Automating The Signin',()=&gt; {
-    it('visit the site ',()=&gt;{
-        cy.visit('/')
-})
-})</t>
-  </si>
-  <si>
-    <t>responsiveness / viewport</t>
-  </si>
-  <si>
-    <t>To check the application’s responsiveness we can use “cy. viewport()” command. It manages the orientation and dimension of the application.
-describe('Test to get window size', function() {
-    it('Get the window size', function() {
-        cy.viewport()
-        cy.viewport(320, 480)
-})
-})</t>
-  </si>
-  <si>
-    <t>capture screenshots</t>
-  </si>
-  <si>
-    <t>In Cypress, we don’t need to add any dependency or plugin to capture screenshots like we used to do in Selenium. 
-Cypress has the inbuilt capability to capture screenshots of the fail tests.
-cy.screenshot() // default file name 
-cy.screenshot('fileName);
-This command will take a screenshot of the entire browser window and save it to the screenshots directory in the Cypress project root.
-cy.get('#my-element').screenshot('fileName'); // specific element</t>
-  </si>
-  <si>
-    <t>cypress commands</t>
-  </si>
-  <si>
-    <t>we can write custom commands in commands.js file
-Cypress custom commands are functions that you can define to extend the functionality of Cypress. Custom commands can be used to perform common tasks, such as logging in to a website or interacting with a specific UI element.
-To create a custom command, you can use the Cypress.Commands.add() function. This function takes two arguments: the name of the command and the function that defines the command.
-Here is an example of how to create a custom command to log in to a website:
-Cypress.Commands.add('login', (username, password) =&gt; {
-  cy.get('#username').type(username);
-  cy.get('#password').type(password);
-  cy.get('#login-button').click();
-});</t>
-  </si>
-  <si>
-    <t>fixtures</t>
-  </si>
-  <si>
-    <t>Cypress fixtures are used to store and manage test data. They are typically JSON files, but they can also be other file types, such as CSV or YAML.
-To use a fixture in a Cypress test, you can use the cy.fixture() command. This command takes the name of the fixture file as an argument and returns the contents of the file.
-Here is an example of how to use a fixture in a Cypress test:
-const user = cy.fixture('user.json');
-cy.get('#username').type(user.username);
-cy.get('#password').type(user.password);
-cy.get('#login-button').click();</t>
-  </si>
-  <si>
-    <t>how do you store the value , so that can be used later stages</t>
-  </si>
-  <si>
-    <t>You can also use Cypress commands to store and retrieve values from local storage. To store a value in local storage, you can use the cy.setLocalStorage() command. This command takes two arguments: the key and the value to store.
-For example, the following code is equivalent to the previous example:
-cy.setLocalStorage('name', 'John Doe');
-To retrieve a value from local storage, you can use the cy.getLocalStorage() command. This command takes a single argument: the key of the value to retrieve.
-For example, the following code is equivalent to the previous example:
-const name = cy.getLocalStorage('name');</t>
-  </si>
-  <si>
-    <t>interception of calls and usage</t>
-  </si>
-  <si>
-    <t>Cypress intercept calls allow you to intercept and modify HTTP requests and responses before they are sent to the server or received from the server, respectively. This can be useful for a variety of purposes, such as:
-Stubbing out server responses: You can use Cypress intercept calls to stub out server responses, which can be useful for testing your application in isolation or for testing with different types of data.
-Modifying requests: You can use Cypress intercept calls to modify requests before they are sent to the server. This can be useful for adding headers, changing the request body, or delaying the request.
-Logging requests and responses: You can use Cypress intercept calls to log requests and responses, which can be useful for debugging your tests or for understanding how your application is communicating with the server.
-To intercept a call in Cypress, you can use the cy.intercept() command. This command takes two arguments: the URL of the request that you want to intercept and the handler function. The handler function is a function that is called when the request is intercepted. The handler function can be used to modify the request or response, or to log the request and response.
-Here is an example of how to intercept a call in Cypress:
-cy.intercept('GET', '/api/users').as('getUsers');
-// ...
-cy.wait('@getUsers').then((response) =&gt; {
-  // ...
-});</t>
-  </si>
-  <si>
-    <t>dubugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cy.pause() command, which pauses execution at a specific point and allows you to use the browser's DevTools to debug your code.
-Another way to debug tests is to use the 
-cy.debug() command. 
-This command logs the current state of your application's DOM </t>
-  </si>
-  <si>
-    <t>debugging - pause()</t>
-  </si>
-  <si>
-    <t>cy.pause(); 
-will pause the execution and we can interact with network tab / application or anything while we are at puse</t>
-  </si>
-  <si>
-    <t>debugging - slowdown</t>
-  </si>
-  <si>
-    <t>1. intall dependency : npm install cypress-slow-down
-2. import this line : import { slowCypressDown } from 'cypress-slow-down'
-3. Make sure that you are calling the slowCypressDown() function before you start writing your Cypress tests. The function should be called outside of any describe() or it() blocks.
-4. set command delay to True in cypress.config.ts file 
-e2e: {
-    env: {
-      commandDelay: true,
-    },
-  },</t>
-  </si>
-  <si>
-    <t>debugging - RUNKEY</t>
-  </si>
-  <si>
-    <t>package.json , scripts :  "cy": "export CYPRESS_RUN_KEY=KRANTHI; cypress open",</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">debugging - </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>local.sh</t>
-    </r>
-  </si>
-  <si>
-    <t>export CYPRESS_BASE_URL="https://www.cpln.dev.swacorp.com/planit/dashboard"
-export CYPRESS_FO_USER="tPlanitFO2"
-export CYPRESS_IF_USER="tPlanitIF1"
-export CYPRESS_ADMIN_USER="tPlanitFOIF3"
-export CYPRESS_APP_PASSWORD="pauoRD9H" 
-npm run cy --log-level debug</t>
-  </si>
-  <si>
-    <t>debugging - run</t>
-  </si>
-  <si>
-    <t>chmod 755 local.sh
-./local.sh</t>
-  </si>
-  <si>
-    <t>describe.only(</t>
-  </si>
-  <si>
-    <t>runs only one describe section</t>
-  </si>
-  <si>
-    <t>it.only(</t>
-  </si>
-  <si>
-    <t>runs only one it method</t>
-  </si>
-  <si>
-    <t>describe.skip(</t>
-  </si>
-  <si>
-    <t>except this describe block</t>
-  </si>
-  <si>
-    <t>it.skip(</t>
-  </si>
-  <si>
-    <t>except this it blocck</t>
-  </si>
-  <si>
-    <t>retry</t>
-  </si>
-  <si>
-    <t>To configure retries globally, add the following to your cypress.config.js file:
-module.exports = defineConfig({
-  e2e: {
-    retries: {
-      runMode: 2, // Number of retries for run mode (cypress run)
-      openMode: 1, // Number of retries for open mode (cypress open)
-    },
-per test / per suite
-it('my test', { retries: 2 }, () =&gt; {
-  // ...
-});
-describe('my suite', { retries: 2 }, () =&gt; {
-  // ...
-});</t>
-  </si>
-  <si>
-    <t>Cypress.Promise.all()</t>
-  </si>
-  <si>
-    <t>The Cypress.Promise.all() function takes an array of promises as input and returns a single promise that resolves when all of the input promises have resolved.
-const flightSchedules = ['AA123', 'BA456', 'DL789'];
-cy.Promise.all(flightSchedules.map(fs =&gt; cy.get('@overlap-table-rows').contains(fs))).then(() =&gt; {
-  // Assert that all of the flight schedules are present in the overlap table.
-});
-If any of the flight schedules are not present in the overlap table, then the Cypress.Promise.all() function will reject and the test will fail.</t>
-  </si>
-  <si>
-    <t>constants in cy</t>
-  </si>
-  <si>
-    <t>file name const.js
-export const INACTIVE = 'Inactive';
-export const ACTIVE = "Active";
-export const ACTIVATE = 'Activate';
-export const DEACTIVATE = 'Deactivate';
-in your test.js file 
-import * as fs from "../../support/helpers/flight-schedules/const";
-you can access const.ACTIVE where ever neeed in script</t>
-  </si>
-  <si>
-    <t>expalin framework</t>
-  </si>
-  <si>
-    <t>First folder structure is like :
-Fixture: A fixture is nothing but tet data files that can be used throughout the testing process. 
-e2e: e2e is the main folder where you'll keep your tests. All your test files will be here. You can write tests in .js files
-Plugins: It has its own index.js file. You can put your custom plugin code here.
-Support: The support folder contains two files: commands.js and index.js.Page objects: Page objects are reusable components that represent the different pages in your web application.
-Kind of page object modal implemented to create clear segragation between pages
-our test data resides in fixture folder and we read  data from test data  
-we have custom commands written in helper files 
-we have config which covers all the configs that talk about browser info and other details</t>
-  </si>
-  <si>
-    <t>headless</t>
-  </si>
-  <si>
-    <t>cypress run --headless --browser chrome</t>
-  </si>
-  <si>
-    <t>change the baseUrl</t>
-  </si>
-  <si>
-    <t>npx cypress run --config baseUrl="https://www.lambdatest.com/"</t>
-  </si>
-  <si>
-    <t>run one spec file</t>
-  </si>
-  <si>
-    <t>cypress run --spec cypress/integration/my-spec.js</t>
-  </si>
-  <si>
-    <t>Reporting</t>
-  </si>
-  <si>
-    <t>Cypress provides a range of built-in reporters that can be configured in the cypress.json configuration file or through the command line when running tests.
- The most commonly used reporter is the default spec reporter, which displays results in a terminal in a spec-like format, making it easy to read and analyze.</t>
-  </si>
-  <si>
-    <t>logging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We don’t need to add any plugin to perform logging in Cypress. Cypress provides the “cy.log()” command. This command prints the message on the console.
-</t>
-  </si>
-  <si>
-    <t>shadow DOM</t>
-  </si>
-  <si>
-    <t>cy.get('#locator').shadow().find('.nb-btn').click()</t>
-  </si>
-  <si>
-    <t>first and last child</t>
-  </si>
-  <si>
-    <t>cy.get('ul li').first()
-cy.get('ul li').last()</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The `cy.wait()` command can be used to pause a test for a specified amount of time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">type / sendkeys </t>
-  </si>
-  <si>
-    <t>You can simulate keyboard input in Cypress by typing `cy.type()` command</t>
-  </si>
-  <si>
-    <t>changing dom content / javascript exe</t>
-  </si>
-  <si>
-    <t>Cypress doesn’t have JavascriptExecuter command, but cypress does this in a different way - 
-cy.window().then((win) =&gt;{
-win.eval("document.querySelector('input[name=\"q\"]').value='Some Text'")
-})
---------
-cy.get('a[href*="lambdatest"]').invoke('removeAttr', 'target').click()</t>
-  </si>
-  <si>
-    <t>setup -high level</t>
-  </si>
-  <si>
-    <t>Install Cypress
-Create your spec file
-Use describe() block
-Use it() block for test script
-Open cypress
-Execute manually by selecting the test case or execute using the command line.</t>
-  </si>
-  <si>
-    <t>setup - detailed</t>
-  </si>
-  <si>
-    <t>Open a terminal or command prompt and navigate to the directory where your project is stored.
-Run the command `npm install cypress --save-dev` to ensure that Cypress is installed in your project.
-Once you have Cypress installed, run the command `npx cypress open` and the Cypress Test Runner will launch a new window containing its UI.
-From the Test Runner UI, you can select a test file from the integration folder to run by clicking on it. You can also run a specific test by clicking on its name.
-When you run tests, the results appear in the Test Runner UI. The UI allows you to debug failed tests, re-run tests on different environments, or run your tests again.</t>
-  </si>
-  <si>
-    <t>cypress folder structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cypress uses cypress.json file, if we want to specify any custom configuration which is located in the root of our project.
-The folder named "cypress " is located in the project root folder which is main folder for cypress automation framework.
-Fixture: A fixture is nothing but tet data files that can be used throughout the testing process. 
-e2e: e2e is the main folder where you'll keep your tests. All your test files will be here. You can write tests in .js files
-Plugins: It has its own index.js file. You can put your custom plugin code here.
-Support: The support folder contains two files: commands.js and index.js.
-</t>
-  </si>
-  <si>
-    <t>get browser details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cy.state('window').then((win) =&gt; {
-                                                const browserName = win.navigator.appName;
-                                                const browserVersion = win.navigator.appVersion;
-                                                const userAgent = win.navigator.userAgent;
-                                                // Use the browser properties as needed...
-                                                });
-                                                </t>
-  </si>
-  <si>
-    <t>location()</t>
-  </si>
-  <si>
-    <t>cy.location() command returns a location object for the current window.
-The location object contains information about the current URL, such as protocol, host, pathname and search parameters. 
-cy.location().then((loc) =&gt; {  console.log(loc.pathname)})</t>
-  </si>
-  <si>
-    <t>event after:run</t>
-  </si>
-  <si>
-    <t>The `after:run` event is a built-in event in Cypress that is triggered after all test cases in a test suite have finished running. 
-This event is useful for performing cleanup tasks or logging test results after all tests have completed. 
-similar events are like `before:each` and `before:each-sandbox`.</t>
-  </si>
-  <si>
-    <t>cy.task()</t>
-  </si>
-  <si>
-    <t>such as interacting with APIs or databases, executing command-line tools, or reading and writing files.</t>
-  </si>
-  <si>
-    <t>cy.exec()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running build scripts, interacting with command-line tools, or executing system commands.</t>
-  </si>
-  <si>
-    <t>read files</t>
-  </si>
-  <si>
-    <t>you can read files using the cy.readFile() and cy.fixture() functions. 
-The cy.readFile() function reads the contents of a file from the project's file system, 
-while the cy.fixture() function loads a fixture file</t>
-  </si>
-  <si>
-    <t>write file</t>
-  </si>
-  <si>
-    <t>cy.writeFile() function to save data in your project's file system. 
-This function takes two arguments: a string representing the path to the file you want to write, and a string containing the data you want to write to that file.</t>
-  </si>
-  <si>
-    <t>cy.clearCookies() , cy.clearLocalStorage()</t>
-  </si>
-  <si>
-    <t>The cy.clearCookies() and cy.clearLocalStorage() commands in Cypress allow you to clear the cookies and local storage data of the currently focused browser window. 
-The cy.clearCookies() command can be used to clear all cookies for a given domain, while the cy.clearLocalStorage() command can clear all data stored in local storage for a given domain.</t>
-  </si>
-  <si>
-    <t>timeouts</t>
-  </si>
-  <si>
-    <t>The defaultCommand Timeout - which is commang level wait
-Cypress's pageLoadTimeout - page loading time out
-The requestTimeout   -  the maximum time allowed for network requests to  complete</t>
-  </si>
-  <si>
-    <t>dblclick , double click , right click</t>
-  </si>
-  <si>
-    <t>cy.get('input[name="btnK"]').dblclick();
-cy.get('body').rightclick();</t>
-  </si>
-  <si>
-    <t>loop table content</t>
-  </si>
-  <si>
-    <t>first get the table element and then get all the td inside td and and apply loop to print
-cy.get('#tableID').get('tbody tr td').each(($ele)=&gt;{
-cy.log($ele.text());
-})</t>
-  </si>
-  <si>
-    <t>frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> with the help of cy.frame() method or cy.iframe() method we can switch to frames and perform requried operations.
-to switch back to parent , cy.parent() does the job ...
-  // Switch to the frame
-  cy.frame('#my-frame') OR cy.iframe('my-frame')
-  // Interact with the elements inside the frame
-  cy.get('#my-input').type('Hello world!')
-  // Switch back to the main page
-  cy.parent()
- </t>
-  </si>
-  <si>
-    <t>desktop based / non web / windows based</t>
-  </si>
-  <si>
-    <t>Unfortunately, desktop app automation is not possible with cypress or with any cypress plugin.
-Cypress code for interacting with elements runs inside the browser, 
-which makes it impossible to interact with anything outside the browser.</t>
-  </si>
-  <si>
-    <t>exception in cypress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TimeoutException:   is thrown when a Cypress command times out.
- For example, if you use the cy.get() command to wait for an element to appear, but the element does not appear within the specified timeout period, Cypress will throw a TimeoutException.
-ElementNotFoundError:  is thrown when Cypress cannot find an element on the page.
- For example, if you use the cy.get() command to wait for an element with the ID my-element,
- but the element does not exist on the page, Cypress will throw an ElementNotFoundError.
-CypressError: This exception is thrown when Cypress encounters an unexpected error. 
- </t>
-  </si>
-  <si>
-    <t>cypress.js usage</t>
-  </si>
-  <si>
-    <t>we can define
-view port size / browser dimenstions test
-reporitng information
-re-try config
-Request timeout
-page load time out
-global test data / fixture
-------------
-// Define a global override to set the default viewport size
-Cypress.config('viewportWidth', 1280);
-Cypress.config('viewportHeight', 720);
-// Define a global fixture
-Cypress.fixtures.add('users.json', [
-  {
-    name: 'John Doe',
-    email: 'john.doe@example.com',
-    password: 'password123',
-  },
-  {
-    name: 'Jane Doe',
-    email: 'jane.doe@example.com',
-    password: 'password456',
-  },
-]);
-// Define a global plugin
-Cypress.on('uncaught:exception', (error) =&gt; {
-  // Handle the uncaught exception
-});</t>
-  </si>
-  <si>
-    <t>which test you automated</t>
-  </si>
-  <si>
-    <t>1. first and fore most login to the system
-2. configure alerts, email alerts , message alerts
-2. navigate to the detection system
-3. pass the list of applicatons to search 
-4. make sure to trigger the crawinling system
-5. choose different types of crawiling cold / recent / hot
-6. verify the alerts were triggered when keywords matched
-7. making sure alerts identified were correct all the time
-8. scheduling scans
-9. remidiation configuration
-10. is remidiation is executed for the configuration
-etc</t>
   </si>
   <si>
     <t>HTC/credit acceptence</t>
@@ -7624,14 +7624,14 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -9658,6 +9658,548 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="27.11"/>
+    <col customWidth="1" min="3" max="3" width="79.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="15.0" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="15.0" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="15.0" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="15.0" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="15.0" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="15.0" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="15.0" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="15.0" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" ht="15.0" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" ht="15.0" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" ht="15.0" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" ht="15.0" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" ht="15.0" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" ht="15.0" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" ht="15.0" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" ht="15.0" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" ht="15.0" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" ht="15.0" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" ht="15.0" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" ht="15.0" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" ht="15.0" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" ht="15.0" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" ht="15.0" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="15.0" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9674,10 +10216,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>869</v>
+        <v>646</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>870</v>
+        <v>1038</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -9688,10 +10230,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>871</v>
+        <v>1039</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>872</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -9702,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>873</v>
+        <v>1041</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>874</v>
+        <v>1042</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -9716,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>875</v>
+        <v>1043</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>876</v>
+        <v>1044</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -9730,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>877</v>
+        <v>1045</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>878</v>
+        <v>1046</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -9744,10 +10286,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>879</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>880</v>
+        <v>1048</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -9758,10 +10300,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>881</v>
+        <v>1049</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>882</v>
+        <v>1050</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -9772,10 +10314,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>883</v>
+        <v>1051</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>884</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -9840,152 +10382,6 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.22"/>
-    <col customWidth="1" min="3" max="3" width="128.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>885</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>887</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>889</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>893</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>895</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10004,6 +10400,152 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.22"/>
+    <col customWidth="1" min="3" max="3" width="128.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.22"/>
     <col customWidth="1" min="2" max="2" width="19.44"/>
     <col customWidth="1" min="3" max="3" width="41.11"/>
   </cols>
@@ -10013,10 +10555,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>903</v>
+        <v>1071</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>904</v>
+        <v>1072</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10027,10 +10569,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>905</v>
+        <v>1073</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>906</v>
+        <v>1074</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10041,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>907</v>
+        <v>1075</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>908</v>
+        <v>1076</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10055,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>909</v>
+        <v>1077</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>910</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10069,10 +10611,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>911</v>
+        <v>1079</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>912</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10083,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>913</v>
+        <v>1081</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>914</v>
+        <v>1082</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10097,10 +10639,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>915</v>
+        <v>1083</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>916</v>
+        <v>1084</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10111,10 +10653,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>917</v>
+        <v>1085</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>918</v>
+        <v>1086</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10125,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>919</v>
+        <v>1087</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>920</v>
+        <v>1088</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10139,10 +10681,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>921</v>
+        <v>1089</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>922</v>
+        <v>1090</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10153,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>923</v>
+        <v>1091</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>924</v>
+        <v>1092</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10166,11 +10708,11 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>925</v>
+      <c r="B12" s="25" t="s">
+        <v>1093</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>926</v>
+        <v>1094</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10181,10 +10723,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>927</v>
+        <v>1095</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>928</v>
+        <v>1096</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10195,10 +10737,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>929</v>
+        <v>1097</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>930</v>
+        <v>1098</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10209,10 +10751,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>931</v>
+        <v>1099</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>932</v>
+        <v>1100</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10223,10 +10765,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>933</v>
+        <v>1101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>934</v>
+        <v>1102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10237,10 +10779,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>935</v>
+        <v>1103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>936</v>
+        <v>1104</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10251,10 +10793,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>937</v>
+        <v>1105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>938</v>
+        <v>1106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10265,10 +10807,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>939</v>
+        <v>1107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>940</v>
+        <v>1108</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10279,10 +10821,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>941</v>
+        <v>1109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>942</v>
+        <v>1110</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10293,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>943</v>
+        <v>1111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>944</v>
+        <v>1112</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10307,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>945</v>
+        <v>1113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>946</v>
+        <v>1114</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10321,10 +10863,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>947</v>
+        <v>1115</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>948</v>
+        <v>1116</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10335,10 +10877,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>949</v>
+        <v>1117</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>950</v>
+        <v>1118</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10349,10 +10891,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>951</v>
+        <v>1119</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>952</v>
+        <v>1120</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -10362,11 +10904,11 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>953</v>
+      <c r="B26" s="25" t="s">
+        <v>1121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>954</v>
+        <v>1122</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -10377,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>955</v>
+        <v>1123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>956</v>
+        <v>1124</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -10390,11 +10932,11 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>957</v>
+      <c r="B28" s="25" t="s">
+        <v>1125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>958</v>
+        <v>1126</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -10404,11 +10946,11 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>959</v>
+      <c r="B29" s="25" t="s">
+        <v>1127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>960</v>
+        <v>1128</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -10418,11 +10960,11 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>961</v>
+      <c r="B30" s="25" t="s">
+        <v>1129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>962</v>
+        <v>1130</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -10432,11 +10974,11 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>963</v>
+      <c r="B31" s="25" t="s">
+        <v>1131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>964</v>
+        <v>1132</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -10446,11 +10988,11 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>965</v>
+      <c r="B32" s="25" t="s">
+        <v>1133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>966</v>
+        <v>1134</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -10464,7 +11006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -10483,10 +11025,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>967</v>
+        <v>1135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>968</v>
+        <v>1136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10497,10 +11039,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>969</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>970</v>
+        <v>1138</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10511,10 +11053,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>971</v>
+        <v>1139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>972</v>
+        <v>1140</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -10525,10 +11067,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>973</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>974</v>
+        <v>1142</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -10539,10 +11081,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>975</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>976</v>
+        <v>1144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10553,10 +11095,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>978</v>
+        <v>1145</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>1146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -10567,10 +11109,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>979</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>980</v>
+        <v>1148</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -10581,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>982</v>
+        <v>1149</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>1150</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -10595,10 +11137,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>984</v>
+        <v>1151</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>1152</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -10609,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>986</v>
+        <v>1153</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>1154</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -10623,10 +11165,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>988</v>
+        <v>1155</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>1156</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -10637,10 +11179,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>990</v>
+        <v>1157</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>1158</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10651,10 +11193,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>991</v>
+        <v>1159</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>992</v>
+        <v>1160</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -10665,10 +11207,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>993</v>
+        <v>1161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>994</v>
+        <v>1162</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -10679,10 +11221,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>996</v>
+        <v>1163</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>1164</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -10693,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>997</v>
+        <v>1165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>998</v>
+        <v>1166</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -10707,10 +11249,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>999</v>
+        <v>1167</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1000</v>
+        <v>1168</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -10721,10 +11263,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>1002</v>
+        <v>1169</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>1170</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -10735,10 +11277,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1003</v>
+        <v>1171</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1004</v>
+        <v>1172</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -10749,10 +11291,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>1006</v>
+        <v>1173</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>1174</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -10763,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>1008</v>
+        <v>1175</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>1176</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -10777,10 +11319,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>1010</v>
+        <v>1177</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>1178</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -10791,10 +11333,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>1012</v>
+        <v>1179</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>1180</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -10805,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>1014</v>
+        <v>1181</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>1182</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -10819,7 +11361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -10838,10 +11380,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1015</v>
+        <v>1183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1016</v>
+        <v>1184</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -10852,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1017</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1018</v>
+        <v>1186</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10863,1219 +11405,6 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="22.44"/>
-    <col customWidth="1" min="3" max="3" width="69.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="23.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="23.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="23.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="23.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="23.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="23.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="23.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="23.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="23.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="23.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="23.25" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="23.25" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="23.25" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="23.25" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="23.25" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" ht="23.25" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" ht="23.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="23.25" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="23.25" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" ht="23.25" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="23.25" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="23.25" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="23.25" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="23.25" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="23.25" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="23.25" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" ht="23.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" ht="23.25" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" ht="23.25" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" ht="23.25" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" ht="23.25" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="23.25" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="23.25" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" ht="23.25" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" ht="23.25" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" ht="23.25" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="23.25" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" ht="23.25" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="23.25" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" ht="23.25" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" ht="23.25" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" ht="23.25" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" ht="23.25" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" ht="23.25" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" ht="23.25" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="23.25" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" ht="23.25" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" ht="23.25" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" ht="23.25" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" ht="23.25" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" ht="23.25" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" ht="23.25" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" ht="23.25" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" ht="23.25" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" ht="23.25" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" ht="23.25" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" ht="23.25" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" ht="23.25" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" ht="21.0" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" ht="21.0" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" ht="23.25" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" ht="23.25" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" ht="23.25" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" ht="23.25" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" ht="23.25" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" ht="23.25" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" ht="23.25" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" ht="21.0" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" ht="23.25" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" ht="23.25" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" ht="23.25" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B47"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12379,10 +11708,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1013</v>
+        <v>1181</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1014</v>
+        <v>1182</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -12396,7 +11725,7 @@
         <v>1222</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1094</v>
+        <v>682</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -12410,7 +11739,7 @@
         <v>1223</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1096</v>
+        <v>684</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -12424,7 +11753,7 @@
         <v>1224</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>1098</v>
+        <v>686</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -12438,7 +11767,7 @@
         <v>1225</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1100</v>
+        <v>688</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -12460,7 +11789,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>1021</v>
+        <v>608</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1228</v>
@@ -21532,6 +20861,1219 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="22.44"/>
+    <col customWidth="1" min="3" max="3" width="69.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="23.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="23.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="23.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="23.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="23.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="23.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="23.25" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="23.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="23.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="23.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="23.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="23.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" ht="23.25" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="23.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="23.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="23.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="23.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="23.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="23.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="23.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="23.25" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="23.25" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="23.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="23.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="23.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="23.25" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="23.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="23.25" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="23.25" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="23.25" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="23.25" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="23.25" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="23.25" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" ht="23.25" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" ht="23.25" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="23.25" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" ht="23.25" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="23.25" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" ht="23.25" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" ht="23.25" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" ht="23.25" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" ht="23.25" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" ht="23.25" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" ht="23.25" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="23.25" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="23.25" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="23.25" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>716</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" ht="23.25" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" ht="23.25" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" ht="23.25" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" ht="23.25" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" ht="23.25" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" ht="23.25" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" ht="23.25" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" ht="23.25" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" ht="23.25" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" ht="23.25" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="21.0" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" ht="21.0" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" ht="21.0" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" ht="21.0" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" ht="23.25" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" ht="23.25" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" ht="23.25" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" ht="23.25" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" ht="23.25" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" ht="23.25" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" ht="23.25" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" ht="21.0" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" ht="23.25" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" ht="23.25" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" ht="23.25" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B47"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="2" max="2" width="27.22"/>
     <col customWidth="1" min="3" max="3" width="80.33"/>
   </cols>
@@ -21541,10 +22083,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>606</v>
+        <v>775</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>607</v>
+        <v>776</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -21555,10 +22097,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>608</v>
+        <v>777</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>609</v>
+        <v>778</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -21569,10 +22111,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>610</v>
+        <v>779</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>611</v>
+        <v>780</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -21583,10 +22125,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>612</v>
+        <v>781</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>613</v>
+        <v>782</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -21597,10 +22139,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>614</v>
+        <v>783</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>615</v>
+        <v>784</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -21611,10 +22153,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>616</v>
+        <v>785</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>617</v>
+        <v>786</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -21625,10 +22167,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>618</v>
+        <v>787</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>619</v>
+        <v>788</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -21642,7 +22184,7 @@
         <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>620</v>
+        <v>789</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -21653,10 +22195,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>621</v>
+        <v>790</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>622</v>
+        <v>791</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -21667,10 +22209,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>623</v>
+        <v>792</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>624</v>
+        <v>793</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -21681,10 +22223,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>625</v>
+        <v>794</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -21695,10 +22237,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>627</v>
+        <v>796</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>628</v>
+        <v>797</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -21709,10 +22251,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>629</v>
+        <v>798</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>630</v>
+        <v>799</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -21723,10 +22265,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>631</v>
+        <v>800</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>632</v>
+        <v>801</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -21737,10 +22279,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>633</v>
+        <v>802</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>634</v>
+        <v>803</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -21751,10 +22293,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>635</v>
+        <v>804</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>636</v>
+        <v>805</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21765,10 +22307,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>637</v>
+        <v>806</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>638</v>
+        <v>807</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -21779,10 +22321,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>639</v>
+        <v>808</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>640</v>
+        <v>809</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -21793,10 +22335,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>641</v>
+        <v>810</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>642</v>
+        <v>811</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -21807,10 +22349,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>643</v>
+        <v>812</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>644</v>
+        <v>813</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -21821,10 +22363,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>645</v>
+        <v>814</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>646</v>
+        <v>815</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -21835,10 +22377,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>647</v>
+        <v>816</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>648</v>
+        <v>817</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -21849,10 +22391,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>649</v>
+        <v>818</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>650</v>
+        <v>819</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -21863,10 +22405,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>651</v>
+        <v>820</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>652</v>
+        <v>821</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -21877,10 +22419,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>653</v>
+        <v>822</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>654</v>
+        <v>823</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -21891,10 +22433,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>655</v>
+        <v>824</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>656</v>
+        <v>825</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -21905,10 +22447,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>657</v>
+        <v>826</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>658</v>
+        <v>827</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -21919,10 +22461,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>659</v>
+        <v>828</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>660</v>
+        <v>829</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -21933,10 +22475,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>661</v>
+        <v>830</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>662</v>
+        <v>831</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -21947,10 +22489,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>663</v>
+        <v>832</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>664</v>
+        <v>833</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -21961,10 +22503,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>665</v>
+        <v>834</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>666</v>
+        <v>835</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -21975,10 +22517,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>667</v>
+        <v>836</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>668</v>
+        <v>837</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -21989,10 +22531,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>669</v>
+        <v>838</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>670</v>
+        <v>839</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -22003,10 +22545,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>671</v>
+        <v>840</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>672</v>
+        <v>841</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22017,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>673</v>
+        <v>842</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>674</v>
+        <v>843</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22031,10 +22573,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>675</v>
+        <v>844</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>676</v>
+        <v>845</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22045,10 +22587,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>677</v>
+        <v>846</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>678</v>
+        <v>847</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22059,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>679</v>
+        <v>848</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>680</v>
+        <v>849</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22073,10 +22615,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>682</v>
+        <v>851</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22087,10 +22629,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>683</v>
+        <v>852</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>684</v>
+        <v>853</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22101,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>685</v>
+        <v>854</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>686</v>
+        <v>855</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -22115,10 +22657,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>687</v>
+        <v>856</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>688</v>
+        <v>857</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -22129,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>689</v>
+        <v>858</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>690</v>
+        <v>859</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -22143,10 +22685,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>691</v>
+        <v>860</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>692</v>
+        <v>861</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -22157,10 +22699,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>693</v>
+        <v>862</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>694</v>
+        <v>863</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -22171,10 +22713,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>695</v>
+        <v>864</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>696</v>
+        <v>865</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -22185,10 +22727,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>697</v>
+        <v>866</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>698</v>
+        <v>867</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -22199,10 +22741,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>699</v>
+        <v>868</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>700</v>
+        <v>869</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -22213,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>702</v>
+        <v>871</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -22227,10 +22769,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>703</v>
+        <v>872</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>704</v>
+        <v>873</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -22241,10 +22783,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>705</v>
+        <v>874</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>706</v>
+        <v>875</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -22255,10 +22797,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>707</v>
+        <v>876</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>708</v>
+        <v>877</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -22269,10 +22811,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>710</v>
+        <v>879</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -22283,10 +22825,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>711</v>
+        <v>880</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>712</v>
+        <v>881</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -22297,10 +22839,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>713</v>
+        <v>882</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>714</v>
+        <v>883</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -22311,10 +22853,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>715</v>
+        <v>884</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>716</v>
+        <v>885</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -22325,10 +22867,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>717</v>
+        <v>886</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>718</v>
+        <v>887</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -22337,7 +22879,7 @@
     <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>719</v>
+        <v>888</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -22413,7 +22955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -22433,10 +22975,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>720</v>
+        <v>889</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>721</v>
+        <v>890</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -22447,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>722</v>
+        <v>891</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>723</v>
+        <v>892</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -22461,10 +23003,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>724</v>
+        <v>893</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>725</v>
+        <v>894</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -22475,10 +23017,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>726</v>
+        <v>895</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>727</v>
+        <v>896</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -22489,10 +23031,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>728</v>
+        <v>897</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>729</v>
+        <v>898</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -22503,10 +23045,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>730</v>
+        <v>899</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>731</v>
+        <v>900</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -22517,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>732</v>
+        <v>901</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>733</v>
+        <v>902</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22531,10 +23073,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>734</v>
+        <v>903</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>735</v>
+        <v>904</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -22545,10 +23087,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>736</v>
+        <v>905</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>737</v>
+        <v>906</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22559,10 +23101,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>738</v>
+        <v>907</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>739</v>
+        <v>908</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -22573,10 +23115,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>740</v>
+        <v>909</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>741</v>
+        <v>910</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -22587,10 +23129,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>742</v>
+        <v>911</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>743</v>
+        <v>912</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -22601,10 +23143,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>744</v>
+        <v>913</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>745</v>
+        <v>914</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22615,10 +23157,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>746</v>
+        <v>915</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>747</v>
+        <v>916</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22629,10 +23171,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>748</v>
+        <v>917</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>749</v>
+        <v>918</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -22643,10 +23185,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>750</v>
+        <v>919</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>751</v>
+        <v>920</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22657,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>752</v>
+        <v>921</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>753</v>
+        <v>922</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -22671,10 +23213,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>754</v>
+        <v>923</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>755</v>
+        <v>924</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22685,10 +23227,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>756</v>
+        <v>925</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>757</v>
+        <v>926</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22699,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>758</v>
+        <v>927</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>759</v>
+        <v>928</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22713,10 +23255,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>760</v>
+        <v>929</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>761</v>
+        <v>930</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22727,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>762</v>
+        <v>931</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>763</v>
+        <v>932</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -22741,10 +23283,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>764</v>
+        <v>933</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>765</v>
+        <v>934</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -22755,10 +23297,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>766</v>
+        <v>935</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>767</v>
+        <v>936</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -22769,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>768</v>
+        <v>937</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>769</v>
+        <v>938</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -22783,10 +23325,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>770</v>
+        <v>939</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>771</v>
+        <v>940</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -22797,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>772</v>
+        <v>941</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>773</v>
+        <v>942</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22811,10 +23353,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>774</v>
+        <v>943</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>775</v>
+        <v>944</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -22825,10 +23367,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>776</v>
+        <v>945</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>777</v>
+        <v>946</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22839,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>778</v>
+        <v>947</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>779</v>
+        <v>948</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -22853,10 +23395,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>780</v>
+        <v>949</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>781</v>
+        <v>950</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -22867,10 +23409,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>782</v>
+        <v>951</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>783</v>
+        <v>952</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -22881,10 +23423,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>784</v>
+        <v>953</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>785</v>
+        <v>954</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -22895,10 +23437,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>786</v>
+        <v>955</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>787</v>
+        <v>956</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22909,10 +23451,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>788</v>
+        <v>957</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>789</v>
+        <v>958</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22923,10 +23465,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>790</v>
+        <v>959</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>791</v>
+        <v>960</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22937,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>792</v>
+        <v>961</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>793</v>
+        <v>962</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -22951,10 +23493,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>794</v>
+        <v>963</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>795</v>
+        <v>964</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22965,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>796</v>
+        <v>965</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>797</v>
+        <v>966</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22979,10 +23521,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>798</v>
+        <v>967</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>799</v>
+        <v>968</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22993,10 +23535,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>800</v>
+        <v>969</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>801</v>
+        <v>970</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -23007,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>802</v>
+        <v>971</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>803</v>
+        <v>972</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -23021,10 +23563,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>804</v>
+        <v>973</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>805</v>
+        <v>974</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -23035,10 +23577,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>806</v>
+        <v>975</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>807</v>
+        <v>976</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -23049,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>808</v>
+        <v>977</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>809</v>
+        <v>978</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -23259,546 +23801,4 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="27.11"/>
-    <col customWidth="1" min="3" max="3" width="79.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="15.0" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="15.0" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="15.0" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/blackbox.xlsx
+++ b/blackbox.xlsx
@@ -26,14 +26,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="EoKpuyGv2n43ZQmvsuD5zKj7Dm7HcFh8ae+kaekYi2k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId22" roundtripDataChecksum="boBvwZcHWOuRrn7ya/NED7lUFyN/kMG7lnFInTlU4A0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1543">
   <si>
     <t>Yes</t>
   </si>
@@ -24818,8 +24818,12 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>809</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
@@ -24828,8 +24832,12 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>811</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
@@ -24839,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -24853,10 +24861,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -24867,10 +24875,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -24881,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -24895,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -24909,10 +24917,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -24923,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -24937,10 +24945,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -24951,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -24965,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -24979,10 +24987,10 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -24993,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -25007,10 +25015,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -25021,10 +25029,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -25035,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -25049,10 +25057,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -25063,10 +25071,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -25077,10 +25085,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -25091,10 +25099,10 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -25105,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -25119,10 +25127,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -25133,10 +25141,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -25147,10 +25155,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -25161,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -25175,10 +25183,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -25189,10 +25197,10 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -25203,10 +25211,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -25217,10 +25225,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -25231,10 +25239,10 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -25245,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -25259,10 +25267,10 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -25273,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>871</v>
+        <v>874</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>875</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -25287,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -25301,10 +25309,10 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>879</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -25315,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -25329,10 +25337,10 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -25343,24 +25351,24 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" ht="23.25" customHeight="1">
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>883</v>
+        <v>886</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -25371,38 +25379,38 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" ht="23.25" customHeight="1">
+    <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>889</v>
+        <v>892</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>893</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -25413,10 +25421,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -25427,38 +25435,38 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" ht="21.0" customHeight="1">
+    <row r="72" ht="23.25" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" ht="21.0" customHeight="1">
+    <row r="73" ht="23.25" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>897</v>
+        <v>900</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>901</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -25469,10 +25477,10 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
@@ -25483,10 +25491,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -25497,10 +25505,10 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -25511,24 +25519,24 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" ht="23.25" customHeight="1">
+    <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>907</v>
+        <v>910</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
@@ -25539,24 +25547,24 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" ht="21.0" customHeight="1">
+    <row r="80" ht="23.25" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>911</v>
+        <v>914</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>915</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>3</v>
@@ -25567,24 +25575,24 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" ht="23.25" customHeight="1">
+    <row r="82" ht="29.25" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>3</v>
@@ -25595,24 +25603,24 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" ht="29.25" customHeight="1">
+    <row r="84" ht="23.25" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
@@ -25623,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
@@ -25637,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
@@ -25651,10 +25659,10 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>3</v>
@@ -25665,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>3</v>
@@ -25678,11 +25686,11 @@
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>928</v>
+      <c r="B89" s="26" t="s">
+        <v>932</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>3</v>
@@ -25692,11 +25700,11 @@
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>930</v>
+      <c r="B90" s="10" t="s">
+        <v>934</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
@@ -25706,11 +25714,11 @@
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>932</v>
+      <c r="B91" s="10" t="s">
+        <v>936</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
@@ -25720,11 +25728,11 @@
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>934</v>
+      <c r="B92" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
@@ -25734,43 +25742,27 @@
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>936</v>
+      <c r="B93" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" ht="23.25" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>939</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" ht="23.25" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>941</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" ht="23.25" customHeight="1">
       <c r="A96" s="1"/>
@@ -25850,21 +25842,9 @@
       <c r="C108" s="23"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" ht="23.25" customHeight="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" ht="23.25" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B91"/>
+    <hyperlink r:id="rId1" ref="B89"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
